--- a/data/input_data_brazil_group2.xlsx
+++ b/data/input_data_brazil_group2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CECB14D-7975-4FA3-BB7D-EF2405671B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BFAA30-F510-4734-A035-8C06C091440E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="95">
   <si>
     <t>0-4</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>PA</t>
+  </si>
+  <si>
+    <t>Barretos</t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -875,14 +878,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -890,10 +899,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,19 +917,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1284,10 +1290,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1356,7 +1362,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="54" t="s">
@@ -1415,7 +1421,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="78"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="54" t="s">
         <v>20</v>
       </c>
@@ -1472,7 +1478,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="54" t="s">
@@ -1531,7 +1537,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="54" t="s">
         <v>21</v>
       </c>
@@ -1588,7 +1594,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="72" t="s">
@@ -1647,7 +1653,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="78"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="72" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1710,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="78" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="72" t="s">
@@ -1763,7 +1769,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="78"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="72" t="s">
         <v>21</v>
       </c>
@@ -1820,7 +1826,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="78" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="73" t="s">
@@ -1879,7 +1885,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="78"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="73" t="s">
         <v>20</v>
       </c>
@@ -1936,7 +1942,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="78" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="73" t="s">
@@ -1995,7 +2001,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="78"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="73" t="s">
         <v>21</v>
       </c>
@@ -2051,8 +2057,242 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="37">
+        <v>3348</v>
+      </c>
+      <c r="D14" s="37">
+        <v>3378</v>
+      </c>
+      <c r="E14" s="37">
+        <v>3983</v>
+      </c>
+      <c r="F14" s="92">
+        <v>4367</v>
+      </c>
+      <c r="G14" s="92">
+        <v>4883</v>
+      </c>
+      <c r="H14" s="92">
+        <v>4988</v>
+      </c>
+      <c r="I14" s="92">
+        <v>4641</v>
+      </c>
+      <c r="J14" s="92">
+        <v>4352</v>
+      </c>
+      <c r="K14" s="92">
+        <v>4115</v>
+      </c>
+      <c r="L14" s="92">
+        <v>4184</v>
+      </c>
+      <c r="M14" s="92">
+        <v>3736</v>
+      </c>
+      <c r="N14" s="92">
+        <v>3097</v>
+      </c>
+      <c r="O14" s="92">
+        <v>2605</v>
+      </c>
+      <c r="P14" s="92">
+        <v>2087</v>
+      </c>
+      <c r="Q14" s="92">
+        <v>1646</v>
+      </c>
+      <c r="R14" s="92">
+        <v>1164</v>
+      </c>
+      <c r="S14" s="92">
+        <v>56574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="79"/>
+      <c r="B15" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="37">
+        <v>3436</v>
+      </c>
+      <c r="D15" s="37">
+        <v>3704</v>
+      </c>
+      <c r="E15" s="37">
+        <v>4211</v>
+      </c>
+      <c r="F15" s="92">
+        <v>4590</v>
+      </c>
+      <c r="G15" s="92">
+        <v>4984</v>
+      </c>
+      <c r="H15" s="92">
+        <v>4922</v>
+      </c>
+      <c r="I15" s="92">
+        <v>4506</v>
+      </c>
+      <c r="J15" s="92">
+        <v>3892</v>
+      </c>
+      <c r="K15" s="92">
+        <v>3787</v>
+      </c>
+      <c r="L15" s="92">
+        <v>3740</v>
+      </c>
+      <c r="M15" s="92">
+        <v>3185</v>
+      </c>
+      <c r="N15" s="92">
+        <v>2646</v>
+      </c>
+      <c r="O15" s="92">
+        <v>2034</v>
+      </c>
+      <c r="P15" s="92">
+        <v>1581</v>
+      </c>
+      <c r="Q15" s="92">
+        <v>1294</v>
+      </c>
+      <c r="R15" s="92">
+        <v>823</v>
+      </c>
+      <c r="S15" s="92">
+        <v>53335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="37">
+        <v>6784</v>
+      </c>
+      <c r="D16" s="37">
+        <v>7082</v>
+      </c>
+      <c r="E16" s="37">
+        <v>8194</v>
+      </c>
+      <c r="F16" s="37">
+        <v>8957</v>
+      </c>
+      <c r="G16" s="37">
+        <v>9867</v>
+      </c>
+      <c r="H16" s="37">
+        <v>9910</v>
+      </c>
+      <c r="I16" s="37">
+        <v>9147</v>
+      </c>
+      <c r="J16" s="37">
+        <v>8244</v>
+      </c>
+      <c r="K16" s="37">
+        <v>7902</v>
+      </c>
+      <c r="L16" s="37">
+        <v>7924</v>
+      </c>
+      <c r="M16" s="37">
+        <v>6921</v>
+      </c>
+      <c r="N16" s="37">
+        <v>5743</v>
+      </c>
+      <c r="O16" s="37">
+        <v>4639</v>
+      </c>
+      <c r="P16" s="37">
+        <v>3668</v>
+      </c>
+      <c r="Q16" s="37">
+        <v>2940</v>
+      </c>
+      <c r="R16" s="37">
+        <v>1987</v>
+      </c>
+      <c r="S16" s="37">
+        <v>109909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="79"/>
+      <c r="B17" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="37">
+        <v>6.1723789680553913E-2</v>
+      </c>
+      <c r="D17" s="37">
+        <v>6.4435123602252772E-2</v>
+      </c>
+      <c r="E17" s="37">
+        <v>7.4552584410739794E-2</v>
+      </c>
+      <c r="F17" s="37">
+        <v>8.1494691062606345E-2</v>
+      </c>
+      <c r="G17" s="37">
+        <v>8.9774267803364602E-2</v>
+      </c>
+      <c r="H17" s="37">
+        <v>9.0165500550455371E-2</v>
+      </c>
+      <c r="I17" s="37">
+        <v>8.3223393898588835E-2</v>
+      </c>
+      <c r="J17" s="37">
+        <v>7.5007506209682551E-2</v>
+      </c>
+      <c r="K17" s="37">
+        <v>7.1895841104914066E-2</v>
+      </c>
+      <c r="L17" s="37">
+        <v>7.2096006696448875E-2</v>
+      </c>
+      <c r="M17" s="37">
+        <v>6.2970275409657078E-2</v>
+      </c>
+      <c r="N17" s="37">
+        <v>5.2252317826565614E-2</v>
+      </c>
+      <c r="O17" s="37">
+        <v>4.2207644505909435E-2</v>
+      </c>
+      <c r="P17" s="37">
+        <v>3.3373063170441003E-2</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>2.674940177783439E-2</v>
+      </c>
+      <c r="R17" s="37">
+        <v>1.8078592289985353E-2</v>
+      </c>
+      <c r="S17" s="37">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A6:A7"/>
@@ -2069,10 +2309,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="A34:XFD49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2137,7 +2377,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="54" t="s">
@@ -2196,7 +2436,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
@@ -2253,7 +2493,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="79"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="54" t="s">
         <v>2</v>
       </c>
@@ -2310,7 +2550,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="79"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
@@ -2367,7 +2607,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="79"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
@@ -2424,7 +2664,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
@@ -2481,7 +2721,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="79"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="54" t="s">
         <v>6</v>
       </c>
@@ -2538,7 +2778,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="79"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="54" t="s">
         <v>7</v>
       </c>
@@ -2595,7 +2835,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="79"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="54" t="s">
         <v>8</v>
       </c>
@@ -2652,7 +2892,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="79"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
@@ -2709,7 +2949,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="79"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="54" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +3006,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="79"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="54" t="s">
         <v>11</v>
       </c>
@@ -2823,7 +3063,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="79"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="54" t="s">
         <v>12</v>
       </c>
@@ -2880,7 +3120,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="79"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="54" t="s">
         <v>13</v>
       </c>
@@ -2937,7 +3177,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="79"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="54" t="s">
         <v>14</v>
       </c>
@@ -2994,7 +3234,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="79"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="54" t="s">
         <v>15</v>
       </c>
@@ -3051,7 +3291,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="90" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="72" t="s">
@@ -3110,7 +3350,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="79"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="72" t="s">
         <v>1</v>
       </c>
@@ -3167,7 +3407,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="79"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="72" t="s">
         <v>2</v>
       </c>
@@ -3224,7 +3464,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="79"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="72" t="s">
         <v>3</v>
       </c>
@@ -3281,7 +3521,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="79"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="72" t="s">
         <v>4</v>
       </c>
@@ -3338,7 +3578,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="79"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="72" t="s">
         <v>5</v>
       </c>
@@ -3395,7 +3635,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="79"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="72" t="s">
         <v>6</v>
       </c>
@@ -3452,7 +3692,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="79"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="72" t="s">
         <v>7</v>
       </c>
@@ -3509,7 +3749,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="79"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="72" t="s">
         <v>8</v>
       </c>
@@ -3566,7 +3806,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="79"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="72" t="s">
         <v>9</v>
       </c>
@@ -3623,7 +3863,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="79"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="72" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +3920,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="79"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="72" t="s">
         <v>11</v>
       </c>
@@ -3737,7 +3977,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="79"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="72" t="s">
         <v>12</v>
       </c>
@@ -3794,7 +4034,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="79"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="72" t="s">
         <v>13</v>
       </c>
@@ -3851,7 +4091,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="79"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="72" t="s">
         <v>14</v>
       </c>
@@ -3908,7 +4148,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="79"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="72" t="s">
         <v>15</v>
       </c>
@@ -3965,7 +4205,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="90" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="73" t="s">
@@ -4024,7 +4264,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="79"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="73" t="s">
         <v>1</v>
       </c>
@@ -4081,7 +4321,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="79"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="73" t="s">
         <v>2</v>
       </c>
@@ -4138,7 +4378,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="79"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="73" t="s">
         <v>3</v>
       </c>
@@ -4195,7 +4435,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="79"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="73" t="s">
         <v>4</v>
       </c>
@@ -4252,7 +4492,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="79"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="73" t="s">
         <v>5</v>
       </c>
@@ -4309,7 +4549,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="79"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="73" t="s">
         <v>6</v>
       </c>
@@ -4366,7 +4606,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="79"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="73" t="s">
         <v>7</v>
       </c>
@@ -4423,7 +4663,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="79"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="73" t="s">
         <v>8</v>
       </c>
@@ -4480,7 +4720,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="79"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="73" t="s">
         <v>9</v>
       </c>
@@ -4537,7 +4777,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="79"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="73" t="s">
         <v>10</v>
       </c>
@@ -4594,7 +4834,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="79"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="73" t="s">
         <v>11</v>
       </c>
@@ -4651,7 +4891,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="79"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="73" t="s">
         <v>12</v>
       </c>
@@ -4708,7 +4948,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="79"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="73" t="s">
         <v>13</v>
       </c>
@@ -4765,7 +5005,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="79"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="73" t="s">
         <v>14</v>
       </c>
@@ -4822,7 +5062,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="79"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="73" t="s">
         <v>15</v>
       </c>
@@ -4878,11 +5118,926 @@
         <v>3.956950215983615</v>
       </c>
     </row>
+    <row r="50" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="37">
+        <v>0.47868515012606849</v>
+      </c>
+      <c r="D50" s="37">
+        <v>0.5050756084243464</v>
+      </c>
+      <c r="E50" s="37">
+        <v>0.29848922074152962</v>
+      </c>
+      <c r="F50" s="37">
+        <v>0.15763748461758451</v>
+      </c>
+      <c r="G50" s="37">
+        <v>0.26276958653990401</v>
+      </c>
+      <c r="H50" s="37">
+        <v>0.4018546226817582</v>
+      </c>
+      <c r="I50" s="37">
+        <v>0.46855026990285792</v>
+      </c>
+      <c r="J50" s="37">
+        <v>0.42581353822881651</v>
+      </c>
+      <c r="K50" s="37">
+        <v>0.2150961023758293</v>
+      </c>
+      <c r="L50" s="37">
+        <v>8.5677102874029853E-2</v>
+      </c>
+      <c r="M50" s="37">
+        <v>8.7054634490626712E-2</v>
+      </c>
+      <c r="N50" s="37">
+        <v>7.5519312485018378E-2</v>
+      </c>
+      <c r="O50" s="37">
+        <v>5.1291747707612988E-2</v>
+      </c>
+      <c r="P50" s="37">
+        <v>2.3448323882752909E-2</v>
+      </c>
+      <c r="Q50" s="37">
+        <v>7.936442191142019E-3</v>
+      </c>
+      <c r="R50" s="37">
+        <v>1.0728462926527359E-2</v>
+      </c>
+      <c r="S50" s="37">
+        <v>3.5556276101964039</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="90"/>
+      <c r="B51" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="37">
+        <v>0.35580205040617818</v>
+      </c>
+      <c r="D51" s="37">
+        <v>0.77874482238062748</v>
+      </c>
+      <c r="E51" s="37">
+        <v>0.51392686189732029</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0.21151068816272281</v>
+      </c>
+      <c r="G51" s="37">
+        <v>8.5979660811043204E-2</v>
+      </c>
+      <c r="H51" s="37">
+        <v>0.2830602720117526</v>
+      </c>
+      <c r="I51" s="37">
+        <v>0.49982218280047808</v>
+      </c>
+      <c r="J51" s="37">
+        <v>0.52854892579975044</v>
+      </c>
+      <c r="K51" s="37">
+        <v>0.41220946761995753</v>
+      </c>
+      <c r="L51" s="37">
+        <v>0.158487278263369</v>
+      </c>
+      <c r="M51" s="37">
+        <v>7.491244988121594E-2</v>
+      </c>
+      <c r="N51" s="37">
+        <v>7.658338923867769E-2</v>
+      </c>
+      <c r="O51" s="37">
+        <v>4.7723430223019482E-2</v>
+      </c>
+      <c r="P51" s="37">
+        <v>2.5889615389013729E-2</v>
+      </c>
+      <c r="Q51" s="37">
+        <v>1.125956005805686E-2</v>
+      </c>
+      <c r="R51" s="37">
+        <v>1.07315166469787E-2</v>
+      </c>
+      <c r="S51" s="37">
+        <v>4.075192171590162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="90"/>
+      <c r="B52" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="37">
+        <v>0.25903114490036949</v>
+      </c>
+      <c r="D52" s="37">
+        <v>0.63488713027842913</v>
+      </c>
+      <c r="E52" s="37">
+        <v>1.3617561775012721</v>
+      </c>
+      <c r="F52" s="37">
+        <v>0.50016515247583959</v>
+      </c>
+      <c r="G52" s="37">
+        <v>0.11748191206374541</v>
+      </c>
+      <c r="H52" s="37">
+        <v>0.1026461265947456</v>
+      </c>
+      <c r="I52" s="37">
+        <v>0.24113458326860149</v>
+      </c>
+      <c r="J52" s="37">
+        <v>0.47274371568543289</v>
+      </c>
+      <c r="K52" s="37">
+        <v>0.54026417451388908</v>
+      </c>
+      <c r="L52" s="37">
+        <v>0.2670881862450582</v>
+      </c>
+      <c r="M52" s="37">
+        <v>0.1100772333954107</v>
+      </c>
+      <c r="N52" s="37">
+        <v>4.4060450259509373E-2</v>
+      </c>
+      <c r="O52" s="37">
+        <v>2.7464093151194881E-2</v>
+      </c>
+      <c r="P52" s="37">
+        <v>2.8250332887197801E-2</v>
+      </c>
+      <c r="Q52" s="37">
+        <v>2.0448718832852701E-2</v>
+      </c>
+      <c r="R52" s="37">
+        <v>1.2146645636941639E-2</v>
+      </c>
+      <c r="S52" s="37">
+        <v>4.7396457776904901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="90"/>
+      <c r="B53" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="37">
+        <v>0.14223192188580699</v>
+      </c>
+      <c r="D53" s="37">
+        <v>0.24383931877846979</v>
+      </c>
+      <c r="E53" s="37">
+        <v>0.53761637882908031</v>
+      </c>
+      <c r="F53" s="37">
+        <v>1.053252053001392</v>
+      </c>
+      <c r="G53" s="37">
+        <v>0.28778496386498809</v>
+      </c>
+      <c r="H53" s="37">
+        <v>0.1092545287801004</v>
+      </c>
+      <c r="I53" s="37">
+        <v>6.5156402245845596E-2</v>
+      </c>
+      <c r="J53" s="37">
+        <v>0.24324539871722581</v>
+      </c>
+      <c r="K53" s="37">
+        <v>0.3901133394809993</v>
+      </c>
+      <c r="L53" s="37">
+        <v>0.41381277475121181</v>
+      </c>
+      <c r="M53" s="37">
+        <v>0.23194908665088351</v>
+      </c>
+      <c r="N53" s="37">
+        <v>7.5414713132784875E-2</v>
+      </c>
+      <c r="O53" s="37">
+        <v>3.4283980995708542E-2</v>
+      </c>
+      <c r="P53" s="37">
+        <v>2.122256769803035E-2</v>
+      </c>
+      <c r="Q53" s="37">
+        <v>1.033573394560575E-2</v>
+      </c>
+      <c r="R53" s="37">
+        <v>8.6485857092536682E-3</v>
+      </c>
+      <c r="S53" s="37">
+        <v>3.868161748467386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="90"/>
+      <c r="B54" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="37">
+        <v>0.27381885687488261</v>
+      </c>
+      <c r="D54" s="37">
+        <v>0.15430528969338769</v>
+      </c>
+      <c r="E54" s="37">
+        <v>0.16053062254205139</v>
+      </c>
+      <c r="F54" s="37">
+        <v>0.51041339532420837</v>
+      </c>
+      <c r="G54" s="37">
+        <v>0.95175366121290683</v>
+      </c>
+      <c r="H54" s="37">
+        <v>0.35865939924833851</v>
+      </c>
+      <c r="I54" s="37">
+        <v>9.2486722681588987E-2</v>
+      </c>
+      <c r="J54" s="37">
+        <v>4.7742693992617949E-2</v>
+      </c>
+      <c r="K54" s="37">
+        <v>0.15814196861206989</v>
+      </c>
+      <c r="L54" s="37">
+        <v>0.36581738597381241</v>
+      </c>
+      <c r="M54" s="37">
+        <v>0.25544811492927089</v>
+      </c>
+      <c r="N54" s="37">
+        <v>0.1333896458624067</v>
+      </c>
+      <c r="O54" s="37">
+        <v>3.4613445916663467E-2</v>
+      </c>
+      <c r="P54" s="37">
+        <v>1.0624583699202579E-2</v>
+      </c>
+      <c r="Q54" s="37">
+        <v>8.4419869050811579E-3</v>
+      </c>
+      <c r="R54" s="37">
+        <v>8.6878205928446247E-3</v>
+      </c>
+      <c r="S54" s="37">
+        <v>3.5248755940613341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="90"/>
+      <c r="B55" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="37">
+        <v>0.59409801776623594</v>
+      </c>
+      <c r="D55" s="37">
+        <v>0.26971846956973389</v>
+      </c>
+      <c r="E55" s="37">
+        <v>0.1066914579429197</v>
+      </c>
+      <c r="F55" s="37">
+        <v>0.18330523782353131</v>
+      </c>
+      <c r="G55" s="37">
+        <v>0.39561893120591851</v>
+      </c>
+      <c r="H55" s="37">
+        <v>0.81955947261862849</v>
+      </c>
+      <c r="I55" s="37">
+        <v>0.26376865135083971</v>
+      </c>
+      <c r="J55" s="37">
+        <v>6.6040840219867475E-2</v>
+      </c>
+      <c r="K55" s="37">
+        <v>3.8245559919775803E-2</v>
+      </c>
+      <c r="L55" s="37">
+        <v>0.1156000433020708</v>
+      </c>
+      <c r="M55" s="37">
+        <v>0.23218163122333291</v>
+      </c>
+      <c r="N55" s="37">
+        <v>0.1533178767524144</v>
+      </c>
+      <c r="O55" s="37">
+        <v>7.336146889149768E-2</v>
+      </c>
+      <c r="P55" s="37">
+        <v>2.3122554399731089E-2</v>
+      </c>
+      <c r="Q55" s="37">
+        <v>4.1264648779289368E-3</v>
+      </c>
+      <c r="R55" s="37">
+        <v>1.025778164807171E-2</v>
+      </c>
+      <c r="S55" s="37">
+        <v>3.3490144595124991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="90"/>
+      <c r="B56" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="37">
+        <v>0.63860889422218958</v>
+      </c>
+      <c r="D56" s="37">
+        <v>0.75760605564909123</v>
+      </c>
+      <c r="E56" s="37">
+        <v>0.43109155695967338</v>
+      </c>
+      <c r="F56" s="37">
+        <v>9.9132932063686063E-2</v>
+      </c>
+      <c r="G56" s="37">
+        <v>0.13935788561679069</v>
+      </c>
+      <c r="H56" s="37">
+        <v>0.3205606241416098</v>
+      </c>
+      <c r="I56" s="37">
+        <v>0.65710276763772013</v>
+      </c>
+      <c r="J56" s="37">
+        <v>0.25488454143802608</v>
+      </c>
+      <c r="K56" s="37">
+        <v>0.1062128983111677</v>
+      </c>
+      <c r="L56" s="37">
+        <v>4.3093195003270898E-2</v>
+      </c>
+      <c r="M56" s="37">
+        <v>6.8807835922122002E-2</v>
+      </c>
+      <c r="N56" s="37">
+        <v>9.9384582370319968E-2</v>
+      </c>
+      <c r="O56" s="37">
+        <v>9.0106909341717722E-2</v>
+      </c>
+      <c r="P56" s="37">
+        <v>2.233901612369564E-2</v>
+      </c>
+      <c r="Q56" s="37">
+        <v>1.1555556033638141E-2</v>
+      </c>
+      <c r="R56" s="37">
+        <v>6.9524595843518172E-3</v>
+      </c>
+      <c r="S56" s="37">
+        <v>3.7467977104190711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="90"/>
+      <c r="B57" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="37">
+        <v>0.56209348401878634</v>
+      </c>
+      <c r="D57" s="37">
+        <v>0.87334543744132742</v>
+      </c>
+      <c r="E57" s="37">
+        <v>0.75598243558576861</v>
+      </c>
+      <c r="F57" s="37">
+        <v>0.33199136336154572</v>
+      </c>
+      <c r="G57" s="37">
+        <v>7.2332710322452365E-2</v>
+      </c>
+      <c r="H57" s="37">
+        <v>8.6741712649138727E-2</v>
+      </c>
+      <c r="I57" s="37">
+        <v>0.2024358273125457</v>
+      </c>
+      <c r="J57" s="37">
+        <v>0.60062713692258218</v>
+      </c>
+      <c r="K57" s="37">
+        <v>0.17793600606376639</v>
+      </c>
+      <c r="L57" s="37">
+        <v>6.3070454835703685E-2</v>
+      </c>
+      <c r="M57" s="37">
+        <v>4.4459260533049057E-2</v>
+      </c>
+      <c r="N57" s="37">
+        <v>4.0824469397190817E-2</v>
+      </c>
+      <c r="O57" s="37">
+        <v>6.2751325506770761E-2</v>
+      </c>
+      <c r="P57" s="37">
+        <v>4.0517621260720692E-2</v>
+      </c>
+      <c r="Q57" s="37">
+        <v>1.7127773035304591E-2</v>
+      </c>
+      <c r="R57" s="37">
+        <v>5.9872071076361834E-3</v>
+      </c>
+      <c r="S57" s="37">
+        <v>3.938224225354289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="90"/>
+      <c r="B58" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="37">
+        <v>0.35751288953290511</v>
+      </c>
+      <c r="D58" s="37">
+        <v>0.66234582316135404</v>
+      </c>
+      <c r="E58" s="37">
+        <v>0.77180208073566547</v>
+      </c>
+      <c r="F58" s="37">
+        <v>0.54993616037479442</v>
+      </c>
+      <c r="G58" s="37">
+        <v>0.17368099116286859</v>
+      </c>
+      <c r="H58" s="37">
+        <v>7.3619137412741939E-2</v>
+      </c>
+      <c r="I58" s="37">
+        <v>0.13016851756499129</v>
+      </c>
+      <c r="J58" s="37">
+        <v>0.19937326805941741</v>
+      </c>
+      <c r="K58" s="37">
+        <v>0.46551557943291949</v>
+      </c>
+      <c r="L58" s="37">
+        <v>0.15412262569149621</v>
+      </c>
+      <c r="M58" s="37">
+        <v>6.1230409057264922E-2</v>
+      </c>
+      <c r="N58" s="37">
+        <v>1.8251404679916261E-2</v>
+      </c>
+      <c r="O58" s="37">
+        <v>4.2343809062321373E-2</v>
+      </c>
+      <c r="P58" s="37">
+        <v>4.3128920343769937E-2</v>
+      </c>
+      <c r="Q58" s="37">
+        <v>1.656266677943221E-2</v>
+      </c>
+      <c r="R58" s="37">
+        <v>1.175358421914873E-2</v>
+      </c>
+      <c r="S58" s="37">
+        <v>3.731347867271007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="90"/>
+      <c r="B59" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="37">
+        <v>0.20813099662971521</v>
+      </c>
+      <c r="D59" s="37">
+        <v>0.41591452346308028</v>
+      </c>
+      <c r="E59" s="37">
+        <v>0.56510014299816524</v>
+      </c>
+      <c r="F59" s="37">
+        <v>0.6776024053970694</v>
+      </c>
+      <c r="G59" s="37">
+        <v>0.38146504062022318</v>
+      </c>
+      <c r="H59" s="37">
+        <v>0.14185000889735841</v>
+      </c>
+      <c r="I59" s="37">
+        <v>6.1603539633035817E-2</v>
+      </c>
+      <c r="J59" s="37">
+        <v>0.12945701308847349</v>
+      </c>
+      <c r="K59" s="37">
+        <v>0.1647016618970128</v>
+      </c>
+      <c r="L59" s="37">
+        <v>0.41150841335812721</v>
+      </c>
+      <c r="M59" s="37">
+        <v>0.14596803813271261</v>
+      </c>
+      <c r="N59" s="37">
+        <v>4.4048073124127368E-2</v>
+      </c>
+      <c r="O59" s="37">
+        <v>2.3953157017343539E-2</v>
+      </c>
+      <c r="P59" s="37">
+        <v>1.7312953065495889E-2</v>
+      </c>
+      <c r="Q59" s="37">
+        <v>1.469059145500189E-2</v>
+      </c>
+      <c r="R59" s="37">
+        <v>2.275339017424274E-2</v>
+      </c>
+      <c r="S59" s="37">
+        <v>3.4260599489511852</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="90"/>
+      <c r="B60" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="37">
+        <v>0.30472547657854537</v>
+      </c>
+      <c r="D60" s="37">
+        <v>0.26744442164376159</v>
+      </c>
+      <c r="E60" s="37">
+        <v>0.41631961509752852</v>
+      </c>
+      <c r="F60" s="37">
+        <v>0.4651688788106258</v>
+      </c>
+      <c r="G60" s="37">
+        <v>0.41751365053253398</v>
+      </c>
+      <c r="H60" s="37">
+        <v>0.28520772430690872</v>
+      </c>
+      <c r="I60" s="37">
+        <v>0.1393161868077932</v>
+      </c>
+      <c r="J60" s="37">
+        <v>7.682944759486246E-2</v>
+      </c>
+      <c r="K60" s="37">
+        <v>0.11404965017512481</v>
+      </c>
+      <c r="L60" s="37">
+        <v>0.1612209563537183</v>
+      </c>
+      <c r="M60" s="37">
+        <v>0.33813266167736938</v>
+      </c>
+      <c r="N60" s="37">
+        <v>0.1349377997297366</v>
+      </c>
+      <c r="O60" s="37">
+        <v>3.7553956518243788E-2</v>
+      </c>
+      <c r="P60" s="37">
+        <v>1.4294260065436199E-2</v>
+      </c>
+      <c r="Q60" s="37">
+        <v>1.3567630772138781E-2</v>
+      </c>
+      <c r="R60" s="37">
+        <v>2.5517919815436951E-2</v>
+      </c>
+      <c r="S60" s="37">
+        <v>3.211800236479764</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="90"/>
+      <c r="B61" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="37">
+        <v>0.52762004360404713</v>
+      </c>
+      <c r="D61" s="37">
+        <v>0.5278701065422533</v>
+      </c>
+      <c r="E61" s="37">
+        <v>0.33622116709234562</v>
+      </c>
+      <c r="F61" s="37">
+        <v>0.43037934142959611</v>
+      </c>
+      <c r="G61" s="37">
+        <v>0.36416323029133291</v>
+      </c>
+      <c r="H61" s="37">
+        <v>0.4265567225273546</v>
+      </c>
+      <c r="I61" s="37">
+        <v>0.33780201054378622</v>
+      </c>
+      <c r="J61" s="37">
+        <v>0.13492043636676571</v>
+      </c>
+      <c r="K61" s="37">
+        <v>7.9878404322035371E-2</v>
+      </c>
+      <c r="L61" s="37">
+        <v>0.1579556832045815</v>
+      </c>
+      <c r="M61" s="37">
+        <v>0.20367727259928409</v>
+      </c>
+      <c r="N61" s="37">
+        <v>0.3317638543445286</v>
+      </c>
+      <c r="O61" s="37">
+        <v>0.12256126302679909</v>
+      </c>
+      <c r="P61" s="37">
+        <v>5.5738073628725238E-2</v>
+      </c>
+      <c r="Q61" s="37">
+        <v>1.2444603880655519E-2</v>
+      </c>
+      <c r="R61" s="37">
+        <v>2.190563838355155E-2</v>
+      </c>
+      <c r="S61" s="37">
+        <v>4.0714578517876419</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="90"/>
+      <c r="B62" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="37">
+        <v>0.53741472240597843</v>
+      </c>
+      <c r="D62" s="37">
+        <v>0.50750067276412325</v>
+      </c>
+      <c r="E62" s="37">
+        <v>0.32299940451760278</v>
+      </c>
+      <c r="F62" s="37">
+        <v>0.30706703658450069</v>
+      </c>
+      <c r="G62" s="37">
+        <v>0.21340314413844641</v>
+      </c>
+      <c r="H62" s="37">
+        <v>0.27424512615785829</v>
+      </c>
+      <c r="I62" s="37">
+        <v>0.32838656852945453</v>
+      </c>
+      <c r="J62" s="37">
+        <v>0.26023515131030123</v>
+      </c>
+      <c r="K62" s="37">
+        <v>0.13222547667021761</v>
+      </c>
+      <c r="L62" s="37">
+        <v>7.2849011312747805E-2</v>
+      </c>
+      <c r="M62" s="37">
+        <v>0.11950583789572911</v>
+      </c>
+      <c r="N62" s="37">
+        <v>0.163764012875044</v>
+      </c>
+      <c r="O62" s="37">
+        <v>0.25560122854013911</v>
+      </c>
+      <c r="P62" s="37">
+        <v>9.2697027683125002E-2</v>
+      </c>
+      <c r="Q62" s="37">
+        <v>2.4512837987939361E-2</v>
+      </c>
+      <c r="R62" s="37">
+        <v>6.3176201888300284E-3</v>
+      </c>
+      <c r="S62" s="37">
+        <v>3.618724879562039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="90"/>
+      <c r="B63" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="37">
+        <v>0.37949376449834088</v>
+      </c>
+      <c r="D63" s="37">
+        <v>0.55324102421844168</v>
+      </c>
+      <c r="E63" s="37">
+        <v>0.47449156224259581</v>
+      </c>
+      <c r="F63" s="37">
+        <v>0.24796637620233161</v>
+      </c>
+      <c r="G63" s="37">
+        <v>0.1927692449068503</v>
+      </c>
+      <c r="H63" s="37">
+        <v>0.206754843627731</v>
+      </c>
+      <c r="I63" s="37">
+        <v>0.32678670068143328</v>
+      </c>
+      <c r="J63" s="37">
+        <v>0.39525729419885569</v>
+      </c>
+      <c r="K63" s="37">
+        <v>0.30700429606246082</v>
+      </c>
+      <c r="L63" s="37">
+        <v>0.1008899186952671</v>
+      </c>
+      <c r="M63" s="37">
+        <v>0.1025683890533157</v>
+      </c>
+      <c r="N63" s="37">
+        <v>0.1301664136718407</v>
+      </c>
+      <c r="O63" s="37">
+        <v>0.1231420989689643</v>
+      </c>
+      <c r="P63" s="37">
+        <v>0.24067708144014421</v>
+      </c>
+      <c r="Q63" s="37">
+        <v>5.4756676839292397E-2</v>
+      </c>
+      <c r="R63" s="37">
+        <v>1.4013683393592829E-2</v>
+      </c>
+      <c r="S63" s="37">
+        <v>3.8499793687014581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="90"/>
+      <c r="B64" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="37">
+        <v>0.16359554422201181</v>
+      </c>
+      <c r="D64" s="37">
+        <v>0.48536065334738809</v>
+      </c>
+      <c r="E64" s="37">
+        <v>0.40533723414202771</v>
+      </c>
+      <c r="F64" s="37">
+        <v>0.31542538551722871</v>
+      </c>
+      <c r="G64" s="37">
+        <v>6.8905181412138042E-2</v>
+      </c>
+      <c r="H64" s="37">
+        <v>0.15670327502779449</v>
+      </c>
+      <c r="I64" s="37">
+        <v>0.12884062101453109</v>
+      </c>
+      <c r="J64" s="37">
+        <v>0.27912380920500363</v>
+      </c>
+      <c r="K64" s="37">
+        <v>0.25685831538815068</v>
+      </c>
+      <c r="L64" s="37">
+        <v>0.20143855726681559</v>
+      </c>
+      <c r="M64" s="37">
+        <v>0.1249764715025404</v>
+      </c>
+      <c r="N64" s="37">
+        <v>7.5655660441027769E-2</v>
+      </c>
+      <c r="O64" s="37">
+        <v>0.1033168591130217</v>
+      </c>
+      <c r="P64" s="37">
+        <v>8.8307886287068607E-2</v>
+      </c>
+      <c r="Q64" s="37">
+        <v>0.15657321303033081</v>
+      </c>
+      <c r="R64" s="37">
+        <v>5.7440654980261192E-2</v>
+      </c>
+      <c r="S64" s="37">
+        <v>3.0678593218973398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="90"/>
+      <c r="B65" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="37">
+        <v>0.29555038744742151</v>
+      </c>
+      <c r="D65" s="37">
+        <v>0.39898035430399498</v>
+      </c>
+      <c r="E65" s="37">
+        <v>0.60257982313361458</v>
+      </c>
+      <c r="F65" s="37">
+        <v>0.50097240196149551</v>
+      </c>
+      <c r="G65" s="37">
+        <v>0.13799377704885071</v>
+      </c>
+      <c r="H65" s="37">
+        <v>0.1171659318810966</v>
+      </c>
+      <c r="I65" s="37">
+        <v>0.1436630599161739</v>
+      </c>
+      <c r="J65" s="37">
+        <v>0.31602297630105081</v>
+      </c>
+      <c r="K65" s="37">
+        <v>0.34691651751592262</v>
+      </c>
+      <c r="L65" s="37">
+        <v>0.30960510844730388</v>
+      </c>
+      <c r="M65" s="37">
+        <v>0.31253708067259173</v>
+      </c>
+      <c r="N65" s="37">
+        <v>0.14557294994664269</v>
+      </c>
+      <c r="O65" s="37">
+        <v>6.0655538269992919E-2</v>
+      </c>
+      <c r="P65" s="37">
+        <v>0.1065477185303067</v>
+      </c>
+      <c r="Q65" s="37">
+        <v>6.3909240987506263E-2</v>
+      </c>
+      <c r="R65" s="37">
+        <v>9.8277349619649082E-2</v>
+      </c>
+      <c r="S65" s="37">
+        <v>3.956950215983615</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A50:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4893,10 +6048,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="A34:XFD49"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4961,7 +6116,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="54" t="s">
@@ -5020,7 +6175,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
@@ -5077,7 +6232,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="79"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="54" t="s">
         <v>2</v>
       </c>
@@ -5134,7 +6289,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="79"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
@@ -5191,7 +6346,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="79"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
@@ -5248,7 +6403,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
@@ -5305,7 +6460,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="79"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="54" t="s">
         <v>6</v>
       </c>
@@ -5362,7 +6517,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="79"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="54" t="s">
         <v>7</v>
       </c>
@@ -5419,7 +6574,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="79"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="54" t="s">
         <v>8</v>
       </c>
@@ -5476,7 +6631,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="79"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
@@ -5533,7 +6688,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="79"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="54" t="s">
         <v>10</v>
       </c>
@@ -5590,7 +6745,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="79"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="54" t="s">
         <v>11</v>
       </c>
@@ -5647,7 +6802,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="79"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="54" t="s">
         <v>12</v>
       </c>
@@ -5704,7 +6859,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="79"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="54" t="s">
         <v>13</v>
       </c>
@@ -5761,7 +6916,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="79"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="54" t="s">
         <v>14</v>
       </c>
@@ -5818,7 +6973,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="79"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="54" t="s">
         <v>15</v>
       </c>
@@ -5875,7 +7030,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="90" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="72" t="s">
@@ -5934,7 +7089,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="79"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="72" t="s">
         <v>1</v>
       </c>
@@ -5991,7 +7146,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="79"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="72" t="s">
         <v>2</v>
       </c>
@@ -6048,7 +7203,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="79"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="72" t="s">
         <v>3</v>
       </c>
@@ -6105,7 +7260,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="79"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="72" t="s">
         <v>4</v>
       </c>
@@ -6162,7 +7317,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="79"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="72" t="s">
         <v>5</v>
       </c>
@@ -6219,7 +7374,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="79"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="72" t="s">
         <v>6</v>
       </c>
@@ -6276,7 +7431,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="79"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="72" t="s">
         <v>7</v>
       </c>
@@ -6333,7 +7488,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="79"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="72" t="s">
         <v>8</v>
       </c>
@@ -6390,7 +7545,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="79"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="72" t="s">
         <v>9</v>
       </c>
@@ -6447,7 +7602,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="79"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="72" t="s">
         <v>10</v>
       </c>
@@ -6504,7 +7659,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="79"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="72" t="s">
         <v>11</v>
       </c>
@@ -6561,7 +7716,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="79"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="72" t="s">
         <v>12</v>
       </c>
@@ -6618,7 +7773,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="79"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="72" t="s">
         <v>13</v>
       </c>
@@ -6675,7 +7830,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="79"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="72" t="s">
         <v>14</v>
       </c>
@@ -6732,7 +7887,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="79"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="72" t="s">
         <v>15</v>
       </c>
@@ -6789,7 +7944,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="90" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="73" t="s">
@@ -6848,7 +8003,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="79"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="73" t="s">
         <v>1</v>
       </c>
@@ -6905,7 +8060,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="79"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="73" t="s">
         <v>2</v>
       </c>
@@ -6962,7 +8117,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="79"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="73" t="s">
         <v>3</v>
       </c>
@@ -7019,7 +8174,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="79"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="73" t="s">
         <v>4</v>
       </c>
@@ -7076,7 +8231,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="79"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="73" t="s">
         <v>5</v>
       </c>
@@ -7133,7 +8288,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="79"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="73" t="s">
         <v>6</v>
       </c>
@@ -7190,7 +8345,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="79"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="73" t="s">
         <v>7</v>
       </c>
@@ -7247,7 +8402,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="79"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="73" t="s">
         <v>8</v>
       </c>
@@ -7304,7 +8459,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="79"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="73" t="s">
         <v>9</v>
       </c>
@@ -7361,7 +8516,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="79"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="73" t="s">
         <v>10</v>
       </c>
@@ -7418,7 +8573,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="79"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="73" t="s">
         <v>11</v>
       </c>
@@ -7475,7 +8630,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="79"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="73" t="s">
         <v>12</v>
       </c>
@@ -7532,7 +8687,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="79"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="73" t="s">
         <v>13</v>
       </c>
@@ -7589,7 +8744,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="79"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="73" t="s">
         <v>14</v>
       </c>
@@ -7646,7 +8801,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="79"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="73" t="s">
         <v>15</v>
       </c>
@@ -7702,11 +8857,926 @@
         <v>4.9982126694369827E-2</v>
       </c>
     </row>
+    <row r="50" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="37">
+        <v>0.32188585399623482</v>
+      </c>
+      <c r="D50" s="37">
+        <v>4.3165996613467462E-2</v>
+      </c>
+      <c r="E50" s="37">
+        <v>7.8826941883786902E-3</v>
+      </c>
+      <c r="F50" s="37">
+        <v>8.0954836285140833E-3</v>
+      </c>
+      <c r="G50" s="37">
+        <v>5.350381463285668E-3</v>
+      </c>
+      <c r="H50" s="37">
+        <v>2.1820197354978331E-2</v>
+      </c>
+      <c r="I50" s="37">
+        <v>4.0163351356764937E-2</v>
+      </c>
+      <c r="J50" s="37">
+        <v>2.9937600218183261E-2</v>
+      </c>
+      <c r="K50" s="37">
+        <v>1.406802834494349E-2</v>
+      </c>
+      <c r="L50" s="37">
+        <v>1.6658785304422649E-2</v>
+      </c>
+      <c r="M50" s="37">
+        <v>9.477746960655441E-3</v>
+      </c>
+      <c r="N50" s="37">
+        <v>7.410416218606536E-3</v>
+      </c>
+      <c r="O50" s="37">
+        <v>1.2820066116404989E-3</v>
+      </c>
+      <c r="P50" s="37">
+        <v>7.7912040470184529E-4</v>
+      </c>
+      <c r="Q50" s="37">
+        <v>8.236082715566301E-66</v>
+      </c>
+      <c r="R50" s="37">
+        <v>6.3792640459343118E-120</v>
+      </c>
+      <c r="S50" s="37">
+        <v>0.52797766266477753</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="90"/>
+      <c r="B51" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="37">
+        <v>5.4013332840686372E-2</v>
+      </c>
+      <c r="D51" s="37">
+        <v>4.8487069702219676</v>
+      </c>
+      <c r="E51" s="37">
+        <v>0.27004649440469902</v>
+      </c>
+      <c r="F51" s="37">
+        <v>3.1477844989750099E-2</v>
+      </c>
+      <c r="G51" s="37">
+        <v>3.112063305171079E-2</v>
+      </c>
+      <c r="H51" s="37">
+        <v>8.5682695105824075E-2</v>
+      </c>
+      <c r="I51" s="37">
+        <v>0.1082518787734737</v>
+      </c>
+      <c r="J51" s="37">
+        <v>9.4610113931151166E-2</v>
+      </c>
+      <c r="K51" s="37">
+        <v>8.6352818838957734E-2</v>
+      </c>
+      <c r="L51" s="37">
+        <v>5.5114115879851773E-2</v>
+      </c>
+      <c r="M51" s="37">
+        <v>4.1938519812095107E-2</v>
+      </c>
+      <c r="N51" s="37">
+        <v>1.2095894151659721E-2</v>
+      </c>
+      <c r="O51" s="37">
+        <v>4.7724221915271354E-3</v>
+      </c>
+      <c r="P51" s="37">
+        <v>1.3978721748232621E-3</v>
+      </c>
+      <c r="Q51" s="37">
+        <v>3.4745294272257751E-4</v>
+      </c>
+      <c r="R51" s="37">
+        <v>8.0897373782675378E-39</v>
+      </c>
+      <c r="S51" s="37">
+        <v>5.7259290593108991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="90"/>
+      <c r="B52" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="37">
+        <v>4.5646198237292229E-4</v>
+      </c>
+      <c r="D52" s="37">
+        <v>1.048402345795088</v>
+      </c>
+      <c r="E52" s="37">
+        <v>6.0915245858197986</v>
+      </c>
+      <c r="F52" s="37">
+        <v>0.19891582178469799</v>
+      </c>
+      <c r="G52" s="37">
+        <v>1.9970992075700519E-2</v>
+      </c>
+      <c r="H52" s="37">
+        <v>6.6831952524994992E-2</v>
+      </c>
+      <c r="I52" s="37">
+        <v>6.5894958559823053E-2</v>
+      </c>
+      <c r="J52" s="37">
+        <v>9.7085150470876805E-2</v>
+      </c>
+      <c r="K52" s="37">
+        <v>9.5414707764424234E-2</v>
+      </c>
+      <c r="L52" s="37">
+        <v>6.7053823244955138E-2</v>
+      </c>
+      <c r="M52" s="37">
+        <v>4.2486409580883698E-2</v>
+      </c>
+      <c r="N52" s="37">
+        <v>1.987013464162565E-2</v>
+      </c>
+      <c r="O52" s="37">
+        <v>5.1186942914028264E-3</v>
+      </c>
+      <c r="P52" s="37">
+        <v>7.2732043814981617E-4</v>
+      </c>
+      <c r="Q52" s="37">
+        <v>4.937461237409128E-25</v>
+      </c>
+      <c r="R52" s="37">
+        <v>1.821539653143726E-4</v>
+      </c>
+      <c r="S52" s="37">
+        <v>7.8199355129401082</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="90"/>
+      <c r="B53" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="37">
+        <v>2.5961320488757222E-3</v>
+      </c>
+      <c r="D53" s="37">
+        <v>4.7331523306756593E-2</v>
+      </c>
+      <c r="E53" s="37">
+        <v>1.993378340875267</v>
+      </c>
+      <c r="F53" s="37">
+        <v>7.2004049967882464</v>
+      </c>
+      <c r="G53" s="37">
+        <v>8.5732603704935434E-2</v>
+      </c>
+      <c r="H53" s="37">
+        <v>7.9066882192139878E-2</v>
+      </c>
+      <c r="I53" s="37">
+        <v>8.5420854195622176E-2</v>
+      </c>
+      <c r="J53" s="37">
+        <v>0.1108169644460331</v>
+      </c>
+      <c r="K53" s="37">
+        <v>8.7695523641928119E-2</v>
+      </c>
+      <c r="L53" s="37">
+        <v>9.2297552101869434E-2</v>
+      </c>
+      <c r="M53" s="37">
+        <v>4.5803502464733067E-2</v>
+      </c>
+      <c r="N53" s="37">
+        <v>2.511309562052964E-2</v>
+      </c>
+      <c r="O53" s="37">
+        <v>5.7139179796997976E-3</v>
+      </c>
+      <c r="P53" s="37">
+        <v>1.078187517000877E-3</v>
+      </c>
+      <c r="Q53" s="37">
+        <v>6.211745575474707E-33</v>
+      </c>
+      <c r="R53" s="37">
+        <v>1.7071024617396711E-70</v>
+      </c>
+      <c r="S53" s="37">
+        <v>9.8624500768836381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="90"/>
+      <c r="B54" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="37">
+        <v>7.1915872003259921E-3</v>
+      </c>
+      <c r="D54" s="37">
+        <v>2.488331945559516E-2</v>
+      </c>
+      <c r="E54" s="37">
+        <v>9.8972723496553623E-3</v>
+      </c>
+      <c r="F54" s="37">
+        <v>0.87681502535706002</v>
+      </c>
+      <c r="G54" s="37">
+        <v>0.43396335217929949</v>
+      </c>
+      <c r="H54" s="37">
+        <v>5.0518521691796173E-2</v>
+      </c>
+      <c r="I54" s="37">
+        <v>3.3059449223883423E-2</v>
+      </c>
+      <c r="J54" s="37">
+        <v>3.8138410744163707E-2</v>
+      </c>
+      <c r="K54" s="37">
+        <v>2.3470967551167909E-2</v>
+      </c>
+      <c r="L54" s="37">
+        <v>2.672353718850436E-2</v>
+      </c>
+      <c r="M54" s="37">
+        <v>1.329139850207943E-2</v>
+      </c>
+      <c r="N54" s="37">
+        <v>9.0065555574420451E-3</v>
+      </c>
+      <c r="O54" s="37">
+        <v>6.9491305855528976E-4</v>
+      </c>
+      <c r="P54" s="37">
+        <v>1.2567595076342481E-3</v>
+      </c>
+      <c r="Q54" s="37">
+        <v>1.7716419708572461E-4</v>
+      </c>
+      <c r="R54" s="37">
+        <v>1.2195761859305769E-47</v>
+      </c>
+      <c r="S54" s="37">
+        <v>1.5490882337642491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="90"/>
+      <c r="B55" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="37">
+        <v>7.0411920371027366E-3</v>
+      </c>
+      <c r="D55" s="37">
+        <v>0.11941220622015709</v>
+      </c>
+      <c r="E55" s="37">
+        <v>3.7501697976633143E-2</v>
+      </c>
+      <c r="F55" s="37">
+        <v>0.20219305560820081</v>
+      </c>
+      <c r="G55" s="37">
+        <v>0.27982290844340563</v>
+      </c>
+      <c r="H55" s="37">
+        <v>0.16861022321429009</v>
+      </c>
+      <c r="I55" s="37">
+        <v>2.8693936342677341E-2</v>
+      </c>
+      <c r="J55" s="37">
+        <v>3.5696146918985192E-2</v>
+      </c>
+      <c r="K55" s="37">
+        <v>4.0923449381105058E-2</v>
+      </c>
+      <c r="L55" s="37">
+        <v>3.3229089626203419E-2</v>
+      </c>
+      <c r="M55" s="37">
+        <v>8.1207434781656544E-3</v>
+      </c>
+      <c r="N55" s="37">
+        <v>1.261521437847735E-2</v>
+      </c>
+      <c r="O55" s="37">
+        <v>4.2786908082971444E-3</v>
+      </c>
+      <c r="P55" s="37">
+        <v>2.417374774723645E-3</v>
+      </c>
+      <c r="Q55" s="37">
+        <v>4.6311689301311551E-4</v>
+      </c>
+      <c r="R55" s="37">
+        <v>1.285972373394288E-3</v>
+      </c>
+      <c r="S55" s="37">
+        <v>0.98230501847483154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="90"/>
+      <c r="B56" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="37">
+        <v>1.414863204255085E-2</v>
+      </c>
+      <c r="D56" s="37">
+        <v>0.38656142882902123</v>
+      </c>
+      <c r="E56" s="37">
+        <v>0.25590223553032482</v>
+      </c>
+      <c r="F56" s="37">
+        <v>0.16997353434587931</v>
+      </c>
+      <c r="G56" s="37">
+        <v>4.9810400953459517E-2</v>
+      </c>
+      <c r="H56" s="37">
+        <v>8.9812244592160834E-2</v>
+      </c>
+      <c r="I56" s="37">
+        <v>7.9533339396441111E-2</v>
+      </c>
+      <c r="J56" s="37">
+        <v>5.1927461106782223E-2</v>
+      </c>
+      <c r="K56" s="37">
+        <v>5.4661293023912649E-2</v>
+      </c>
+      <c r="L56" s="37">
+        <v>2.6456713674442849E-2</v>
+      </c>
+      <c r="M56" s="37">
+        <v>2.0324159456073011E-2</v>
+      </c>
+      <c r="N56" s="37">
+        <v>2.9626321980635389E-3</v>
+      </c>
+      <c r="O56" s="37">
+        <v>5.4288861292109032E-3</v>
+      </c>
+      <c r="P56" s="37">
+        <v>4.4758597001743559E-4</v>
+      </c>
+      <c r="Q56" s="37">
+        <v>1.6544033487290881E-48</v>
+      </c>
+      <c r="R56" s="37">
+        <v>3.111894537411386E-55</v>
+      </c>
+      <c r="S56" s="37">
+        <v>1.2079505472483409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="90"/>
+      <c r="B57" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="37">
+        <v>2.4094530498851161E-2</v>
+      </c>
+      <c r="D57" s="37">
+        <v>0.21103004561520569</v>
+      </c>
+      <c r="E57" s="37">
+        <v>0.15476724630716421</v>
+      </c>
+      <c r="F57" s="37">
+        <v>8.1792989688988876E-2</v>
+      </c>
+      <c r="G57" s="37">
+        <v>1.8406160838773621E-2</v>
+      </c>
+      <c r="H57" s="37">
+        <v>5.4300977936625708E-2</v>
+      </c>
+      <c r="I57" s="37">
+        <v>7.3935118551687079E-2</v>
+      </c>
+      <c r="J57" s="37">
+        <v>5.2167700897465398E-2</v>
+      </c>
+      <c r="K57" s="37">
+        <v>5.6326708408704969E-2</v>
+      </c>
+      <c r="L57" s="37">
+        <v>2.518071468770091E-2</v>
+      </c>
+      <c r="M57" s="37">
+        <v>3.5397255426945331E-3</v>
+      </c>
+      <c r="N57" s="37">
+        <v>7.9664634310837815E-3</v>
+      </c>
+      <c r="O57" s="37">
+        <v>5.5692977623375192E-4</v>
+      </c>
+      <c r="P57" s="37">
+        <v>2.0853046091846572E-3</v>
+      </c>
+      <c r="Q57" s="37">
+        <v>1.8442828999642351E-123</v>
+      </c>
+      <c r="R57" s="37">
+        <v>9.6955508291490322E-67</v>
+      </c>
+      <c r="S57" s="37">
+        <v>0.76615061679036445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="90"/>
+      <c r="B58" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="37">
+        <v>7.8131390531622075E-3</v>
+      </c>
+      <c r="D58" s="37">
+        <v>0.1143718975922791</v>
+      </c>
+      <c r="E58" s="37">
+        <v>9.090119452313182E-2</v>
+      </c>
+      <c r="F58" s="37">
+        <v>0.38021210387512422</v>
+      </c>
+      <c r="G58" s="37">
+        <v>8.545331916344474E-3</v>
+      </c>
+      <c r="H58" s="37">
+        <v>2.6243016227800439E-2</v>
+      </c>
+      <c r="I58" s="37">
+        <v>2.518800094747458E-2</v>
+      </c>
+      <c r="J58" s="37">
+        <v>3.2256350836662208E-2</v>
+      </c>
+      <c r="K58" s="37">
+        <v>6.735060447510445E-2</v>
+      </c>
+      <c r="L58" s="37">
+        <v>2.249971426907493E-2</v>
+      </c>
+      <c r="M58" s="37">
+        <v>2.3924104257743259E-2</v>
+      </c>
+      <c r="N58" s="37">
+        <v>6.5062719092913984E-3</v>
+      </c>
+      <c r="O58" s="37">
+        <v>5.5089267358986553E-3</v>
+      </c>
+      <c r="P58" s="37">
+        <v>4.7830884960623588E-4</v>
+      </c>
+      <c r="Q58" s="37">
+        <v>4.8121321452199949E-68</v>
+      </c>
+      <c r="R58" s="37">
+        <v>2.402314254873032E-92</v>
+      </c>
+      <c r="S58" s="37">
+        <v>0.8117989654686979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="90"/>
+      <c r="B59" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="37">
+        <v>6.5526501582747074E-2</v>
+      </c>
+      <c r="D59" s="37">
+        <v>0.23116353556338051</v>
+      </c>
+      <c r="E59" s="37">
+        <v>0.14997076489266409</v>
+      </c>
+      <c r="F59" s="37">
+        <v>0.55356309327501529</v>
+      </c>
+      <c r="G59" s="37">
+        <v>5.7403252606291503E-3</v>
+      </c>
+      <c r="H59" s="37">
+        <v>3.0286548087054759E-2</v>
+      </c>
+      <c r="I59" s="37">
+        <v>5.7250688257407228E-2</v>
+      </c>
+      <c r="J59" s="37">
+        <v>4.705592320514377E-2</v>
+      </c>
+      <c r="K59" s="37">
+        <v>4.2873655300472262E-2</v>
+      </c>
+      <c r="L59" s="37">
+        <v>2.4261451767324499E-2</v>
+      </c>
+      <c r="M59" s="37">
+        <v>2.866653772125036E-2</v>
+      </c>
+      <c r="N59" s="37">
+        <v>1.2957047321007451E-2</v>
+      </c>
+      <c r="O59" s="37">
+        <v>3.2436251816322531E-3</v>
+      </c>
+      <c r="P59" s="37">
+        <v>1.679303180069944E-3</v>
+      </c>
+      <c r="Q59" s="37">
+        <v>6.2091694999345679E-134</v>
+      </c>
+      <c r="R59" s="37">
+        <v>3.272976236849204E-72</v>
+      </c>
+      <c r="S59" s="37">
+        <v>1.2542390005957991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="90"/>
+      <c r="B60" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="37">
+        <v>1.7276564569366031E-2</v>
+      </c>
+      <c r="D60" s="37">
+        <v>0.34374491306177152</v>
+      </c>
+      <c r="E60" s="37">
+        <v>0.43090278461609199</v>
+      </c>
+      <c r="F60" s="37">
+        <v>0.47429307285422612</v>
+      </c>
+      <c r="G60" s="37">
+        <v>5.3932818663460207E-3</v>
+      </c>
+      <c r="H60" s="37">
+        <v>1.441287396998394E-2</v>
+      </c>
+      <c r="I60" s="37">
+        <v>3.9554536281910732E-2</v>
+      </c>
+      <c r="J60" s="37">
+        <v>3.7378185951242329E-2</v>
+      </c>
+      <c r="K60" s="37">
+        <v>4.5683448772113923E-2</v>
+      </c>
+      <c r="L60" s="37">
+        <v>5.921359060353313E-2</v>
+      </c>
+      <c r="M60" s="37">
+        <v>2.9147380147990089E-2</v>
+      </c>
+      <c r="N60" s="37">
+        <v>1.5485750221481539E-2</v>
+      </c>
+      <c r="O60" s="37">
+        <v>4.5310538982891203E-3</v>
+      </c>
+      <c r="P60" s="37">
+        <v>8.872726684917207E-24</v>
+      </c>
+      <c r="Q60" s="37">
+        <v>1.2379745213780139E-117</v>
+      </c>
+      <c r="R60" s="37">
+        <v>5.6426234883373904E-78</v>
+      </c>
+      <c r="S60" s="37">
+        <v>1.517017436814347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="90"/>
+      <c r="B61" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="37">
+        <v>6.1436303587422282E-2</v>
+      </c>
+      <c r="D61" s="37">
+        <v>0.29836734751559868</v>
+      </c>
+      <c r="E61" s="37">
+        <v>0.25909269995590478</v>
+      </c>
+      <c r="F61" s="37">
+        <v>0.30080081209253862</v>
+      </c>
+      <c r="G61" s="37">
+        <v>5.9245459590767189E-3</v>
+      </c>
+      <c r="H61" s="37">
+        <v>5.2645886160860057E-2</v>
+      </c>
+      <c r="I61" s="37">
+        <v>2.021886717096472E-2</v>
+      </c>
+      <c r="J61" s="37">
+        <v>3.2789760496381513E-2</v>
+      </c>
+      <c r="K61" s="37">
+        <v>4.0775374109550948E-2</v>
+      </c>
+      <c r="L61" s="37">
+        <v>2.8342240706459201E-2</v>
+      </c>
+      <c r="M61" s="37">
+        <v>2.4365780870073551E-2</v>
+      </c>
+      <c r="N61" s="37">
+        <v>2.7399322582822901E-2</v>
+      </c>
+      <c r="O61" s="37">
+        <v>8.8799071808366246E-3</v>
+      </c>
+      <c r="P61" s="37">
+        <v>1.132791795453083E-31</v>
+      </c>
+      <c r="Q61" s="37">
+        <v>7.8196049266514365E-4</v>
+      </c>
+      <c r="R61" s="37">
+        <v>7.6246750979380663E-4</v>
+      </c>
+      <c r="S61" s="37">
+        <v>1.1625832763909489</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="90"/>
+      <c r="B62" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="37">
+        <v>3.6369564263522412E-2</v>
+      </c>
+      <c r="D62" s="37">
+        <v>5.9687035545736927E-2</v>
+      </c>
+      <c r="E62" s="37">
+        <v>3.050726239237847E-2</v>
+      </c>
+      <c r="F62" s="37">
+        <v>0.14552397802207759</v>
+      </c>
+      <c r="G62" s="37">
+        <v>1.260629835171548E-2</v>
+      </c>
+      <c r="H62" s="37">
+        <v>1.69458168771701E-3</v>
+      </c>
+      <c r="I62" s="37">
+        <v>1.5512729205015671E-2</v>
+      </c>
+      <c r="J62" s="37">
+        <v>4.2209767002126961E-2</v>
+      </c>
+      <c r="K62" s="37">
+        <v>9.2179242540818048E-3</v>
+      </c>
+      <c r="L62" s="37">
+        <v>1.4220065232363461E-2</v>
+      </c>
+      <c r="M62" s="37">
+        <v>1.109675290050921E-2</v>
+      </c>
+      <c r="N62" s="37">
+        <v>5.7702034809601734E-3</v>
+      </c>
+      <c r="O62" s="37">
+        <v>2.0447404361983459E-2</v>
+      </c>
+      <c r="P62" s="37">
+        <v>1.110757343340206E-2</v>
+      </c>
+      <c r="Q62" s="37">
+        <v>4.4227119865179817E-67</v>
+      </c>
+      <c r="R62" s="37">
+        <v>2.1206862486684419E-37</v>
+      </c>
+      <c r="S62" s="37">
+        <v>0.41597114013359082</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="90"/>
+      <c r="B63" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="37">
+        <v>1.679370287981174E-3</v>
+      </c>
+      <c r="D63" s="37">
+        <v>2.7297100117586109E-2</v>
+      </c>
+      <c r="E63" s="37">
+        <v>1.058862664725822E-2</v>
+      </c>
+      <c r="F63" s="37">
+        <v>7.6108773459579467E-32</v>
+      </c>
+      <c r="G63" s="37">
+        <v>1.971915589216102E-3</v>
+      </c>
+      <c r="H63" s="37">
+        <v>1.928850056004504E-3</v>
+      </c>
+      <c r="I63" s="37">
+        <v>1.24343737312684E-2</v>
+      </c>
+      <c r="J63" s="37">
+        <v>5.3929778691090514E-3</v>
+      </c>
+      <c r="K63" s="37">
+        <v>5.4168496805298378E-3</v>
+      </c>
+      <c r="L63" s="37">
+        <v>8.6350207079360503E-3</v>
+      </c>
+      <c r="M63" s="37">
+        <v>1.945544980350358E-3</v>
+      </c>
+      <c r="N63" s="37">
+        <v>1.4908227362490541E-2</v>
+      </c>
+      <c r="O63" s="37">
+        <v>8.117811002464774E-3</v>
+      </c>
+      <c r="P63" s="37">
+        <v>1.7439548870433471E-2</v>
+      </c>
+      <c r="Q63" s="37">
+        <v>1.1123902259059831E-2</v>
+      </c>
+      <c r="R63" s="37">
+        <v>3.4569308755407213E-126</v>
+      </c>
+      <c r="S63" s="37">
+        <v>0.1288801191616884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="90"/>
+      <c r="B64" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="37">
+        <v>1.2808834765375139E-28</v>
+      </c>
+      <c r="D64" s="37">
+        <v>5.1106520017403668E-26</v>
+      </c>
+      <c r="E64" s="37">
+        <v>1.9301979720966182E-40</v>
+      </c>
+      <c r="F64" s="37">
+        <v>7.6047603465387494E-3</v>
+      </c>
+      <c r="G64" s="37">
+        <v>2.6358694660100231E-22</v>
+      </c>
+      <c r="H64" s="37">
+        <v>1.6974902433268209E-24</v>
+      </c>
+      <c r="I64" s="37">
+        <v>1.2587500525175131E-26</v>
+      </c>
+      <c r="J64" s="37">
+        <v>7.6210987703919817E-3</v>
+      </c>
+      <c r="K64" s="37">
+        <v>7.8497994839360295E-3</v>
+      </c>
+      <c r="L64" s="37">
+        <v>2.115160230330752E-2</v>
+      </c>
+      <c r="M64" s="37">
+        <v>3.5211783205326357E-2</v>
+      </c>
+      <c r="N64" s="37">
+        <v>2.1436038346101711E-2</v>
+      </c>
+      <c r="O64" s="37">
+        <v>7.739021094092224E-3</v>
+      </c>
+      <c r="P64" s="37">
+        <v>8.013283246565429E-3</v>
+      </c>
+      <c r="Q64" s="37">
+        <v>7.9128505546547413E-3</v>
+      </c>
+      <c r="R64" s="37">
+        <v>2.1382581393332309E-2</v>
+      </c>
+      <c r="S64" s="37">
+        <v>0.14592281874424709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="90"/>
+      <c r="B65" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="37">
+        <v>2.8165558646722189E-94</v>
+      </c>
+      <c r="D65" s="37">
+        <v>2.1130518735531959E-2</v>
+      </c>
+      <c r="E65" s="37">
+        <v>8.4656250555627679E-42</v>
+      </c>
+      <c r="F65" s="37">
+        <v>2.125928409318302E-2</v>
+      </c>
+      <c r="G65" s="37">
+        <v>4.8980205655244127E-36</v>
+      </c>
+      <c r="H65" s="37">
+        <v>7.5923238656548609E-3</v>
+      </c>
+      <c r="I65" s="37">
+        <v>9.7724700098132345E-69</v>
+      </c>
+      <c r="J65" s="37">
+        <v>2.2310823883782119E-60</v>
+      </c>
+      <c r="K65" s="37">
+        <v>1.4371597771133299E-48</v>
+      </c>
+      <c r="L65" s="37">
+        <v>8.5601569360065695E-60</v>
+      </c>
+      <c r="M65" s="37">
+        <v>4.6946904307255803E-42</v>
+      </c>
+      <c r="N65" s="37">
+        <v>1.598220472619177E-46</v>
+      </c>
+      <c r="O65" s="37">
+        <v>2.209785502726872E-83</v>
+      </c>
+      <c r="P65" s="37">
+        <v>8.8586127657032296E-107</v>
+      </c>
+      <c r="Q65" s="37">
+        <v>1.02042815204875E-80</v>
+      </c>
+      <c r="R65" s="37">
+        <v>6.6141391288320814E-113</v>
+      </c>
+      <c r="S65" s="37">
+        <v>4.9982126694369827E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A50:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7717,10 +9787,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="A34:XFD49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7785,7 +9855,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="90" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="54" t="s">
@@ -7844,7 +9914,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
@@ -7901,7 +9971,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="79"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="54" t="s">
         <v>2</v>
       </c>
@@ -7958,7 +10028,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="79"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
@@ -8015,7 +10085,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="79"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
@@ -8072,7 +10142,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
@@ -8129,7 +10199,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="79"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="54" t="s">
         <v>6</v>
       </c>
@@ -8186,7 +10256,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="79"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="54" t="s">
         <v>7</v>
       </c>
@@ -8243,7 +10313,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="79"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="54" t="s">
         <v>8</v>
       </c>
@@ -8300,7 +10370,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="79"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
@@ -8357,7 +10427,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="79"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="54" t="s">
         <v>10</v>
       </c>
@@ -8414,7 +10484,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="79"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="54" t="s">
         <v>11</v>
       </c>
@@ -8471,7 +10541,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="79"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="54" t="s">
         <v>12</v>
       </c>
@@ -8528,7 +10598,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="79"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="54" t="s">
         <v>13</v>
       </c>
@@ -8585,7 +10655,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="79"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="54" t="s">
         <v>14</v>
       </c>
@@ -8642,7 +10712,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="79"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="54" t="s">
         <v>15</v>
       </c>
@@ -8699,7 +10769,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="90" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="72" t="s">
@@ -8758,7 +10828,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="79"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="72" t="s">
         <v>1</v>
       </c>
@@ -8815,7 +10885,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="79"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="72" t="s">
         <v>2</v>
       </c>
@@ -8872,7 +10942,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="79"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="72" t="s">
         <v>3</v>
       </c>
@@ -8929,7 +10999,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="79"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="72" t="s">
         <v>4</v>
       </c>
@@ -8986,7 +11056,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="79"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="72" t="s">
         <v>5</v>
       </c>
@@ -9043,7 +11113,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="79"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="72" t="s">
         <v>6</v>
       </c>
@@ -9100,7 +11170,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="79"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="72" t="s">
         <v>7</v>
       </c>
@@ -9157,7 +11227,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="79"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="72" t="s">
         <v>8</v>
       </c>
@@ -9214,7 +11284,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="79"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="72" t="s">
         <v>9</v>
       </c>
@@ -9271,7 +11341,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="79"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="72" t="s">
         <v>10</v>
       </c>
@@ -9328,7 +11398,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="79"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="72" t="s">
         <v>11</v>
       </c>
@@ -9385,7 +11455,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="79"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="72" t="s">
         <v>12</v>
       </c>
@@ -9442,7 +11512,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="79"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="72" t="s">
         <v>13</v>
       </c>
@@ -9499,7 +11569,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="79"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="72" t="s">
         <v>14</v>
       </c>
@@ -9556,7 +11626,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="79"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="72" t="s">
         <v>15</v>
       </c>
@@ -9613,7 +11683,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="90" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="73" t="s">
@@ -9672,7 +11742,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="79"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="73" t="s">
         <v>1</v>
       </c>
@@ -9729,7 +11799,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="79"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="73" t="s">
         <v>2</v>
       </c>
@@ -9786,7 +11856,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="79"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="73" t="s">
         <v>3</v>
       </c>
@@ -9843,7 +11913,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="79"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="73" t="s">
         <v>4</v>
       </c>
@@ -9900,7 +11970,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="79"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="73" t="s">
         <v>5</v>
       </c>
@@ -9957,7 +12027,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="79"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="73" t="s">
         <v>6</v>
       </c>
@@ -10014,7 +12084,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="79"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="73" t="s">
         <v>7</v>
       </c>
@@ -10071,7 +12141,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="79"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="73" t="s">
         <v>8</v>
       </c>
@@ -10128,7 +12198,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="79"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="73" t="s">
         <v>9</v>
       </c>
@@ -10185,7 +12255,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="79"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="73" t="s">
         <v>10</v>
       </c>
@@ -10242,7 +12312,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="79"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="73" t="s">
         <v>11</v>
       </c>
@@ -10299,7 +12369,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="79"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="73" t="s">
         <v>12</v>
       </c>
@@ -10356,7 +12426,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="79"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="73" t="s">
         <v>13</v>
       </c>
@@ -10413,7 +12483,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="79"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="73" t="s">
         <v>14</v>
       </c>
@@ -10470,7 +12540,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="79"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="73" t="s">
         <v>15</v>
       </c>
@@ -10526,11 +12596,926 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
+    <row r="50" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="37">
+        <v>0</v>
+      </c>
+      <c r="D50" s="37">
+        <v>0</v>
+      </c>
+      <c r="E50" s="37">
+        <v>0</v>
+      </c>
+      <c r="F50" s="37">
+        <v>0</v>
+      </c>
+      <c r="G50" s="37">
+        <v>0</v>
+      </c>
+      <c r="H50" s="37">
+        <v>0</v>
+      </c>
+      <c r="I50" s="37">
+        <v>0</v>
+      </c>
+      <c r="J50" s="37">
+        <v>0</v>
+      </c>
+      <c r="K50" s="37">
+        <v>0</v>
+      </c>
+      <c r="L50" s="37">
+        <v>0</v>
+      </c>
+      <c r="M50" s="37">
+        <v>0</v>
+      </c>
+      <c r="N50" s="37">
+        <v>0</v>
+      </c>
+      <c r="O50" s="37">
+        <v>0</v>
+      </c>
+      <c r="P50" s="37">
+        <v>8.2060452414479945E-92</v>
+      </c>
+      <c r="Q50" s="37">
+        <v>1.2058515015357481E-5</v>
+      </c>
+      <c r="R50" s="37">
+        <v>3.1643683381115669E-125</v>
+      </c>
+      <c r="S50" s="37">
+        <v>1.2058515015357481E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="90"/>
+      <c r="B51" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="37">
+        <v>0</v>
+      </c>
+      <c r="D51" s="37">
+        <v>1.1684056119044099E-3</v>
+      </c>
+      <c r="E51" s="37">
+        <v>9.9071323597455187E-72</v>
+      </c>
+      <c r="F51" s="37">
+        <v>4.4264639643808967E-59</v>
+      </c>
+      <c r="G51" s="37">
+        <v>2.9187428595153338E-6</v>
+      </c>
+      <c r="H51" s="37">
+        <v>9.9877303090461916E-3</v>
+      </c>
+      <c r="I51" s="37">
+        <v>2.587799806811843E-2</v>
+      </c>
+      <c r="J51" s="37">
+        <v>5.6610437551012438E-3</v>
+      </c>
+      <c r="K51" s="37">
+        <v>2.1269981249206579E-2</v>
+      </c>
+      <c r="L51" s="37">
+        <v>5.7211746150945143E-3</v>
+      </c>
+      <c r="M51" s="37">
+        <v>1.4821230604387739E-3</v>
+      </c>
+      <c r="N51" s="37">
+        <v>1.2392612558307871E-3</v>
+      </c>
+      <c r="O51" s="37">
+        <v>1.2821294464222831E-56</v>
+      </c>
+      <c r="P51" s="37">
+        <v>1.3495557764948161E-5</v>
+      </c>
+      <c r="Q51" s="37">
+        <v>7.6459132509916683E-79</v>
+      </c>
+      <c r="R51" s="37">
+        <v>2.383920728025148E-65</v>
+      </c>
+      <c r="S51" s="37">
+        <v>7.2424132225365395E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="90"/>
+      <c r="B52" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="37">
+        <v>0</v>
+      </c>
+      <c r="D52" s="37">
+        <v>2.5655214413908968E-3</v>
+      </c>
+      <c r="E52" s="37">
+        <v>0.1127561817393755</v>
+      </c>
+      <c r="F52" s="37">
+        <v>2.40351142938348E-2</v>
+      </c>
+      <c r="G52" s="37">
+        <v>2.6298148525701111E-2</v>
+      </c>
+      <c r="H52" s="37">
+        <v>7.5651243235306661E-3</v>
+      </c>
+      <c r="I52" s="37">
+        <v>6.1958760869227962E-2</v>
+      </c>
+      <c r="J52" s="37">
+        <v>1.7326987116516111E-2</v>
+      </c>
+      <c r="K52" s="37">
+        <v>5.8740512849127027E-2</v>
+      </c>
+      <c r="L52" s="37">
+        <v>3.2674974166878208E-2</v>
+      </c>
+      <c r="M52" s="37">
+        <v>1.247091925038382E-2</v>
+      </c>
+      <c r="N52" s="37">
+        <v>2.930544076961327E-8</v>
+      </c>
+      <c r="O52" s="37">
+        <v>3.7159699338880002E-17</v>
+      </c>
+      <c r="P52" s="37">
+        <v>2.7978031705087359E-53</v>
+      </c>
+      <c r="Q52" s="37">
+        <v>4.9580076999148522E-6</v>
+      </c>
+      <c r="R52" s="37">
+        <v>3.7771808267144161E-102</v>
+      </c>
+      <c r="S52" s="37">
+        <v>0.35639723188910682</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="90"/>
+      <c r="B53" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="37">
+        <v>0</v>
+      </c>
+      <c r="D53" s="37">
+        <v>1.0721388077324199E-2</v>
+      </c>
+      <c r="E53" s="37">
+        <v>4.2839044753115819E-2</v>
+      </c>
+      <c r="F53" s="37">
+        <v>0.72276908992988265</v>
+      </c>
+      <c r="G53" s="37">
+        <v>0.59347973576180602</v>
+      </c>
+      <c r="H53" s="37">
+        <v>0.33934195225295322</v>
+      </c>
+      <c r="I53" s="37">
+        <v>0.31701371533445272</v>
+      </c>
+      <c r="J53" s="37">
+        <v>0.28916886061324593</v>
+      </c>
+      <c r="K53" s="37">
+        <v>0.31114318037292049</v>
+      </c>
+      <c r="L53" s="37">
+        <v>0.23488923827933761</v>
+      </c>
+      <c r="M53" s="37">
+        <v>0.1329537689968518</v>
+      </c>
+      <c r="N53" s="37">
+        <v>6.0194409720641627E-2</v>
+      </c>
+      <c r="O53" s="37">
+        <v>1.473061814423225E-2</v>
+      </c>
+      <c r="P53" s="37">
+        <v>8.3469960156949892E-6</v>
+      </c>
+      <c r="Q53" s="37">
+        <v>2.8597282239804278E-6</v>
+      </c>
+      <c r="R53" s="37">
+        <v>1.8892612209825001E-31</v>
+      </c>
+      <c r="S53" s="37">
+        <v>3.0692562089610038</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="90"/>
+      <c r="B54" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="37">
+        <v>0</v>
+      </c>
+      <c r="D54" s="37">
+        <v>9.1425258741688522E-3</v>
+      </c>
+      <c r="E54" s="37">
+        <v>5.7450868193034563E-2</v>
+      </c>
+      <c r="F54" s="37">
+        <v>0.40000023458481521</v>
+      </c>
+      <c r="G54" s="37">
+        <v>0.79338661812389055</v>
+      </c>
+      <c r="H54" s="37">
+        <v>0.75597514553892908</v>
+      </c>
+      <c r="I54" s="37">
+        <v>0.63227728300928165</v>
+      </c>
+      <c r="J54" s="37">
+        <v>0.68360145888654777</v>
+      </c>
+      <c r="K54" s="37">
+        <v>0.49850697226215512</v>
+      </c>
+      <c r="L54" s="37">
+        <v>0.38230999240238611</v>
+      </c>
+      <c r="M54" s="37">
+        <v>0.28136357641456328</v>
+      </c>
+      <c r="N54" s="37">
+        <v>0.1233381032698366</v>
+      </c>
+      <c r="O54" s="37">
+        <v>4.1570802099314588E-2</v>
+      </c>
+      <c r="P54" s="37">
+        <v>9.8611340668542582E-6</v>
+      </c>
+      <c r="Q54" s="37">
+        <v>1.326093870262973E-5</v>
+      </c>
+      <c r="R54" s="37">
+        <v>3.7431804801341289E-6</v>
+      </c>
+      <c r="S54" s="37">
+        <v>4.658950445912172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="90"/>
+      <c r="B55" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="37">
+        <v>0</v>
+      </c>
+      <c r="D55" s="37">
+        <v>1.0424348071696E-2</v>
+      </c>
+      <c r="E55" s="37">
+        <v>7.3458749243293459E-2</v>
+      </c>
+      <c r="F55" s="37">
+        <v>0.34955675549052101</v>
+      </c>
+      <c r="G55" s="37">
+        <v>0.75068010076235825</v>
+      </c>
+      <c r="H55" s="37">
+        <v>1.256833927014952</v>
+      </c>
+      <c r="I55" s="37">
+        <v>0.901245713662154</v>
+      </c>
+      <c r="J55" s="37">
+        <v>0.86344683545331236</v>
+      </c>
+      <c r="K55" s="37">
+        <v>0.7704436410115143</v>
+      </c>
+      <c r="L55" s="37">
+        <v>0.51723707072748226</v>
+      </c>
+      <c r="M55" s="37">
+        <v>0.40981098146245248</v>
+      </c>
+      <c r="N55" s="37">
+        <v>0.18064539956186421</v>
+      </c>
+      <c r="O55" s="37">
+        <v>5.5128478325139139E-2</v>
+      </c>
+      <c r="P55" s="37">
+        <v>1.606746272092466E-5</v>
+      </c>
+      <c r="Q55" s="37">
+        <v>1.0118260764952541E-5</v>
+      </c>
+      <c r="R55" s="37">
+        <v>3.01442534314934E-6</v>
+      </c>
+      <c r="S55" s="37">
+        <v>6.1389412009355686</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="90"/>
+      <c r="B56" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="37">
+        <v>0</v>
+      </c>
+      <c r="D56" s="37">
+        <v>1.6584240388265791E-2</v>
+      </c>
+      <c r="E56" s="37">
+        <v>8.3407678117752709E-2</v>
+      </c>
+      <c r="F56" s="37">
+        <v>0.18930193478296869</v>
+      </c>
+      <c r="G56" s="37">
+        <v>0.52124690591994594</v>
+      </c>
+      <c r="H56" s="37">
+        <v>0.85446000089660668</v>
+      </c>
+      <c r="I56" s="37">
+        <v>1.120549311911369</v>
+      </c>
+      <c r="J56" s="37">
+        <v>0.96431007765117549</v>
+      </c>
+      <c r="K56" s="37">
+        <v>0.83467518026230247</v>
+      </c>
+      <c r="L56" s="37">
+        <v>0.65253401246308096</v>
+      </c>
+      <c r="M56" s="37">
+        <v>0.37938351389003722</v>
+      </c>
+      <c r="N56" s="37">
+        <v>0.21119820468991471</v>
+      </c>
+      <c r="O56" s="37">
+        <v>5.1728568844570839E-2</v>
+      </c>
+      <c r="P56" s="37">
+        <v>1.6379556286167829E-5</v>
+      </c>
+      <c r="Q56" s="37">
+        <v>4.1010085071125459E-6</v>
+      </c>
+      <c r="R56" s="37">
+        <v>3.4947898021319551E-6</v>
+      </c>
+      <c r="S56" s="37">
+        <v>5.8794036051725866</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="90"/>
+      <c r="B57" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="37">
+        <v>0</v>
+      </c>
+      <c r="D57" s="37">
+        <v>1.11666639429812E-2</v>
+      </c>
+      <c r="E57" s="37">
+        <v>5.0331974837198541E-2</v>
+      </c>
+      <c r="F57" s="37">
+        <v>0.37051031337291518</v>
+      </c>
+      <c r="G57" s="37">
+        <v>0.42429478158730438</v>
+      </c>
+      <c r="H57" s="37">
+        <v>0.78753554687735861</v>
+      </c>
+      <c r="I57" s="37">
+        <v>0.84508569299870884</v>
+      </c>
+      <c r="J57" s="37">
+        <v>1.1459036476854361</v>
+      </c>
+      <c r="K57" s="37">
+        <v>1.076730770309354</v>
+      </c>
+      <c r="L57" s="37">
+        <v>0.71349211472254637</v>
+      </c>
+      <c r="M57" s="37">
+        <v>0.50074000397330065</v>
+      </c>
+      <c r="N57" s="37">
+        <v>0.1901022066372845</v>
+      </c>
+      <c r="O57" s="37">
+        <v>3.5974011450419528E-2</v>
+      </c>
+      <c r="P57" s="37">
+        <v>1.2298852979232539E-5</v>
+      </c>
+      <c r="Q57" s="37">
+        <v>9.1351283341708809E-6</v>
+      </c>
+      <c r="R57" s="37">
+        <v>6.020974158389122E-6</v>
+      </c>
+      <c r="S57" s="37">
+        <v>6.1518951833502804</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="90"/>
+      <c r="B58" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="37">
+        <v>0</v>
+      </c>
+      <c r="D58" s="37">
+        <v>6.0779244011314537E-3</v>
+      </c>
+      <c r="E58" s="37">
+        <v>5.4933760725785083E-2</v>
+      </c>
+      <c r="F58" s="37">
+        <v>0.2234995350668795</v>
+      </c>
+      <c r="G58" s="37">
+        <v>0.48235382674110788</v>
+      </c>
+      <c r="H58" s="37">
+        <v>0.75229199095860155</v>
+      </c>
+      <c r="I58" s="37">
+        <v>0.889187601476919</v>
+      </c>
+      <c r="J58" s="37">
+        <v>0.93376537033831497</v>
+      </c>
+      <c r="K58" s="37">
+        <v>1.104922830974068</v>
+      </c>
+      <c r="L58" s="37">
+        <v>0.85012439130840645</v>
+      </c>
+      <c r="M58" s="37">
+        <v>0.58894152804676858</v>
+      </c>
+      <c r="N58" s="37">
+        <v>0.19494708464458421</v>
+      </c>
+      <c r="O58" s="37">
+        <v>5.0947722783981138E-2</v>
+      </c>
+      <c r="P58" s="37">
+        <v>1.4362616105122531E-5</v>
+      </c>
+      <c r="Q58" s="37">
+        <v>1.0272156668633031E-5</v>
+      </c>
+      <c r="R58" s="37">
+        <v>1.2950389341679861E-5</v>
+      </c>
+      <c r="S58" s="37">
+        <v>6.1320311526286613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="90"/>
+      <c r="B59" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="37">
+        <v>0</v>
+      </c>
+      <c r="D59" s="37">
+        <v>3.3162255068885809E-3</v>
+      </c>
+      <c r="E59" s="37">
+        <v>7.0182984828436615E-2</v>
+      </c>
+      <c r="F59" s="37">
+        <v>0.26751297238551258</v>
+      </c>
+      <c r="G59" s="37">
+        <v>0.3147963920153708</v>
+      </c>
+      <c r="H59" s="37">
+        <v>0.54151688525267705</v>
+      </c>
+      <c r="I59" s="37">
+        <v>0.69576904769999814</v>
+      </c>
+      <c r="J59" s="37">
+        <v>0.75062051778947148</v>
+      </c>
+      <c r="K59" s="37">
+        <v>0.75003854739879194</v>
+      </c>
+      <c r="L59" s="37">
+        <v>0.70095408763235256</v>
+      </c>
+      <c r="M59" s="37">
+        <v>0.4351979830143522</v>
+      </c>
+      <c r="N59" s="37">
+        <v>0.2112833354944231</v>
+      </c>
+      <c r="O59" s="37">
+        <v>3.8857620021011639E-2</v>
+      </c>
+      <c r="P59" s="37">
+        <v>1.6281037030972492E-5</v>
+      </c>
+      <c r="Q59" s="37">
+        <v>1.082436104787482E-5</v>
+      </c>
+      <c r="R59" s="37">
+        <v>6.091723387356965E-6</v>
+      </c>
+      <c r="S59" s="37">
+        <v>4.7800797961607522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="90"/>
+      <c r="B60" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="37">
+        <v>0</v>
+      </c>
+      <c r="D60" s="37">
+        <v>4.395764245494337E-4</v>
+      </c>
+      <c r="E60" s="37">
+        <v>7.1773796818633773E-2</v>
+      </c>
+      <c r="F60" s="37">
+        <v>0.1892546123922495</v>
+      </c>
+      <c r="G60" s="37">
+        <v>0.24783253165908189</v>
+      </c>
+      <c r="H60" s="37">
+        <v>0.51602773114197453</v>
+      </c>
+      <c r="I60" s="37">
+        <v>0.6027839711831835</v>
+      </c>
+      <c r="J60" s="37">
+        <v>0.61594927687975054</v>
+      </c>
+      <c r="K60" s="37">
+        <v>0.80558110734048916</v>
+      </c>
+      <c r="L60" s="37">
+        <v>0.74406353515646395</v>
+      </c>
+      <c r="M60" s="37">
+        <v>0.54485537369644832</v>
+      </c>
+      <c r="N60" s="37">
+        <v>0.25219870615642681</v>
+      </c>
+      <c r="O60" s="37">
+        <v>4.3923568478705342E-2</v>
+      </c>
+      <c r="P60" s="37">
+        <v>1.180797212969506E-5</v>
+      </c>
+      <c r="Q60" s="37">
+        <v>1.1822664543445789E-5</v>
+      </c>
+      <c r="R60" s="37">
+        <v>1.01613164687284E-5</v>
+      </c>
+      <c r="S60" s="37">
+        <v>4.6347175792810988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="90"/>
+      <c r="B61" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="37">
+        <v>0</v>
+      </c>
+      <c r="D61" s="37">
+        <v>4.9173756080143531E-3</v>
+      </c>
+      <c r="E61" s="37">
+        <v>0.10868667182659859</v>
+      </c>
+      <c r="F61" s="37">
+        <v>0.1249878062249912</v>
+      </c>
+      <c r="G61" s="37">
+        <v>0.1641109825030457</v>
+      </c>
+      <c r="H61" s="37">
+        <v>0.30011882930207628</v>
+      </c>
+      <c r="I61" s="37">
+        <v>0.41815974494529617</v>
+      </c>
+      <c r="J61" s="37">
+        <v>0.38689761310449972</v>
+      </c>
+      <c r="K61" s="37">
+        <v>0.47771824077281139</v>
+      </c>
+      <c r="L61" s="37">
+        <v>0.36085424980693848</v>
+      </c>
+      <c r="M61" s="37">
+        <v>0.32246645600862128</v>
+      </c>
+      <c r="N61" s="37">
+        <v>0.19251692511439961</v>
+      </c>
+      <c r="O61" s="37">
+        <v>4.0720969438860659E-2</v>
+      </c>
+      <c r="P61" s="37">
+        <v>1.349783035371988E-5</v>
+      </c>
+      <c r="Q61" s="37">
+        <v>6.587399251519834E-6</v>
+      </c>
+      <c r="R61" s="37">
+        <v>6.6571675591286492E-6</v>
+      </c>
+      <c r="S61" s="37">
+        <v>2.9021826070533181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="90"/>
+      <c r="B62" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="37">
+        <v>0</v>
+      </c>
+      <c r="D62" s="37">
+        <v>6.3544701826772514E-4</v>
+      </c>
+      <c r="E62" s="37">
+        <v>3.9632961958318592E-2</v>
+      </c>
+      <c r="F62" s="37">
+        <v>1.830725015559756E-2</v>
+      </c>
+      <c r="G62" s="37">
+        <v>7.0459670054142123E-2</v>
+      </c>
+      <c r="H62" s="37">
+        <v>0.1248611168117406</v>
+      </c>
+      <c r="I62" s="37">
+        <v>0.13783457380808761</v>
+      </c>
+      <c r="J62" s="37">
+        <v>0.15984572009723391</v>
+      </c>
+      <c r="K62" s="37">
+        <v>0.1669334794405456</v>
+      </c>
+      <c r="L62" s="37">
+        <v>0.15608485748104911</v>
+      </c>
+      <c r="M62" s="37">
+        <v>0.1149491584578002</v>
+      </c>
+      <c r="N62" s="37">
+        <v>8.4657079849103159E-2</v>
+      </c>
+      <c r="O62" s="37">
+        <v>1.5087984324896419E-2</v>
+      </c>
+      <c r="P62" s="37">
+        <v>2.030195801259054E-5</v>
+      </c>
+      <c r="Q62" s="37">
+        <v>8.2610215574613784E-6</v>
+      </c>
+      <c r="R62" s="37">
+        <v>1.483981821636681E-5</v>
+      </c>
+      <c r="S62" s="37">
+        <v>1.0893327022545689</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="90"/>
+      <c r="B63" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="37">
+        <v>7.602995211457355E-6</v>
+      </c>
+      <c r="D63" s="37">
+        <v>3.3632675385513442E-6</v>
+      </c>
+      <c r="E63" s="37">
+        <v>7.6485529562267413E-6</v>
+      </c>
+      <c r="F63" s="37">
+        <v>2.276215322644046E-5</v>
+      </c>
+      <c r="G63" s="37">
+        <v>3.1493335121439779E-5</v>
+      </c>
+      <c r="H63" s="37">
+        <v>7.8930841022094474E-5</v>
+      </c>
+      <c r="I63" s="37">
+        <v>7.2421284181055644E-5</v>
+      </c>
+      <c r="J63" s="37">
+        <v>2.9174820295804419E-5</v>
+      </c>
+      <c r="K63" s="37">
+        <v>6.6187373191408909E-5</v>
+      </c>
+      <c r="L63" s="37">
+        <v>5.9569323761485908E-5</v>
+      </c>
+      <c r="M63" s="37">
+        <v>7.7071349967688558E-5</v>
+      </c>
+      <c r="N63" s="37">
+        <v>5.3068774755054708E-5</v>
+      </c>
+      <c r="O63" s="37">
+        <v>4.6603011672983138E-5</v>
+      </c>
+      <c r="P63" s="37">
+        <v>1.41633235369618E-5</v>
+      </c>
+      <c r="Q63" s="37">
+        <v>2.490662050944626E-5</v>
+      </c>
+      <c r="R63" s="37">
+        <v>1.191090375257413E-5</v>
+      </c>
+      <c r="S63" s="37">
+        <v>6.0687793070067367E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="90"/>
+      <c r="B64" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="37">
+        <v>5.7886384028014932E-55</v>
+      </c>
+      <c r="D64" s="37">
+        <v>7.8878514941672328E-42</v>
+      </c>
+      <c r="E64" s="37">
+        <v>2.5483041238549718E-6</v>
+      </c>
+      <c r="F64" s="37">
+        <v>2.6064819095335219E-5</v>
+      </c>
+      <c r="G64" s="37">
+        <v>1.6803620529205902E-5</v>
+      </c>
+      <c r="H64" s="37">
+        <v>2.1244673880160619E-5</v>
+      </c>
+      <c r="I64" s="37">
+        <v>3.5726760291416863E-5</v>
+      </c>
+      <c r="J64" s="37">
+        <v>4.0237703289940033E-5</v>
+      </c>
+      <c r="K64" s="37">
+        <v>3.5640193483851463E-5</v>
+      </c>
+      <c r="L64" s="37">
+        <v>3.0976925222088772E-5</v>
+      </c>
+      <c r="M64" s="37">
+        <v>2.1305338212640379E-5</v>
+      </c>
+      <c r="N64" s="37">
+        <v>4.497094136823173E-5</v>
+      </c>
+      <c r="O64" s="37">
+        <v>2.6136837287911721E-5</v>
+      </c>
+      <c r="P64" s="37">
+        <v>1.6826620345055789E-5</v>
+      </c>
+      <c r="Q64" s="37">
+        <v>1.6651432203896709E-5</v>
+      </c>
+      <c r="R64" s="37">
+        <v>2.6082281328611461E-5</v>
+      </c>
+      <c r="S64" s="37">
+        <v>3.612164506622016E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="90"/>
+      <c r="B65" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="37">
+        <v>2.3572127101661981E-141</v>
+      </c>
+      <c r="D65" s="37">
+        <v>9.0687167409415162E-97</v>
+      </c>
+      <c r="E65" s="37">
+        <v>1.186371221506312E-89</v>
+      </c>
+      <c r="F65" s="37">
+        <v>9.3993407642334476E-22</v>
+      </c>
+      <c r="G65" s="37">
+        <v>4.6600045172900577E-5</v>
+      </c>
+      <c r="H65" s="37">
+        <v>4.6966401121414998E-5</v>
+      </c>
+      <c r="I65" s="37">
+        <v>4.6931608219698722E-5</v>
+      </c>
+      <c r="J65" s="37">
+        <v>8.4218404379323794E-5</v>
+      </c>
+      <c r="K65" s="37">
+        <v>2.7778816787032399E-5</v>
+      </c>
+      <c r="L65" s="37">
+        <v>1.0329437771122591E-5</v>
+      </c>
+      <c r="M65" s="37">
+        <v>1.068036175255475E-5</v>
+      </c>
+      <c r="N65" s="37">
+        <v>7.2634182602282728E-75</v>
+      </c>
+      <c r="O65" s="37">
+        <v>1.1007397129367039E-65</v>
+      </c>
+      <c r="P65" s="37">
+        <v>1.0283167122541059E-5</v>
+      </c>
+      <c r="Q65" s="37">
+        <v>5.1690299352079659E-49</v>
+      </c>
+      <c r="R65" s="37">
+        <v>8.2804050872286741E-43</v>
+      </c>
+      <c r="S65" s="37">
+        <v>2.837882423265888E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A50:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10541,10 +13526,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="A34:XFD49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10609,7 +13594,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="72" t="s">
@@ -10668,7 +13653,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="90"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="72" t="s">
         <v>1</v>
       </c>
@@ -10725,7 +13710,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="90"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="72" t="s">
         <v>2</v>
       </c>
@@ -10782,7 +13767,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="90"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="72" t="s">
         <v>3</v>
       </c>
@@ -10839,7 +13824,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="90"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="72" t="s">
         <v>4</v>
       </c>
@@ -10896,7 +13881,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="90"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="72" t="s">
         <v>5</v>
       </c>
@@ -10953,7 +13938,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="90"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="72" t="s">
         <v>6</v>
       </c>
@@ -11010,7 +13995,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="72" t="s">
         <v>7</v>
       </c>
@@ -11067,7 +14052,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="90"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="72" t="s">
         <v>8</v>
       </c>
@@ -11124,7 +14109,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="72" t="s">
         <v>9</v>
       </c>
@@ -11181,7 +14166,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="72" t="s">
         <v>10</v>
       </c>
@@ -11238,7 +14223,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="72" t="s">
         <v>11</v>
       </c>
@@ -11295,7 +14280,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="72" t="s">
         <v>12</v>
       </c>
@@ -11352,7 +14337,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="90"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="72" t="s">
         <v>13</v>
       </c>
@@ -11409,7 +14394,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="90"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="72" t="s">
         <v>14</v>
       </c>
@@ -11466,7 +14451,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="78"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="72" t="s">
         <v>15</v>
       </c>
@@ -11523,7 +14508,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="78" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="72" t="s">
@@ -11582,7 +14567,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="90"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="72" t="s">
         <v>1</v>
       </c>
@@ -11639,7 +14624,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="90"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="72" t="s">
         <v>2</v>
       </c>
@@ -11696,7 +14681,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="90"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="72" t="s">
         <v>3</v>
       </c>
@@ -11753,7 +14738,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="90"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="72" t="s">
         <v>4</v>
       </c>
@@ -11810,7 +14795,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="90"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="72" t="s">
         <v>5</v>
       </c>
@@ -11867,7 +14852,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="90"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="72" t="s">
         <v>6</v>
       </c>
@@ -11924,7 +14909,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="90"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="72" t="s">
         <v>7</v>
       </c>
@@ -11981,7 +14966,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="90"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="72" t="s">
         <v>8</v>
       </c>
@@ -12038,7 +15023,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="90"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="72" t="s">
         <v>9</v>
       </c>
@@ -12095,7 +15080,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="90"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="72" t="s">
         <v>10</v>
       </c>
@@ -12152,7 +15137,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="90"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="72" t="s">
         <v>11</v>
       </c>
@@ -12209,7 +15194,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="90"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="72" t="s">
         <v>12</v>
       </c>
@@ -12266,7 +15251,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="90"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="72" t="s">
         <v>13</v>
       </c>
@@ -12323,7 +15308,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="90"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="72" t="s">
         <v>14</v>
       </c>
@@ -12380,7 +15365,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="78"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="72" t="s">
         <v>15</v>
       </c>
@@ -12437,7 +15422,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="78" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="73" t="s">
@@ -12496,7 +15481,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="90"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="73" t="s">
         <v>1</v>
       </c>
@@ -12553,7 +15538,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="90"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="73" t="s">
         <v>2</v>
       </c>
@@ -12610,7 +15595,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="90"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="73" t="s">
         <v>3</v>
       </c>
@@ -12667,7 +15652,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="90"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="73" t="s">
         <v>4</v>
       </c>
@@ -12724,7 +15709,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="90"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="73" t="s">
         <v>5</v>
       </c>
@@ -12781,7 +15766,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="90"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="73" t="s">
         <v>6</v>
       </c>
@@ -12838,7 +15823,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="90"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="73" t="s">
         <v>7</v>
       </c>
@@ -12895,7 +15880,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="90"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="73" t="s">
         <v>8</v>
       </c>
@@ -12952,7 +15937,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="90"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="73" t="s">
         <v>9</v>
       </c>
@@ -13009,7 +15994,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="90"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="73" t="s">
         <v>10</v>
       </c>
@@ -13066,7 +16051,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="90"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="73" t="s">
         <v>11</v>
       </c>
@@ -13123,7 +16108,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="90"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="73" t="s">
         <v>12</v>
       </c>
@@ -13180,7 +16165,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="90"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="73" t="s">
         <v>13</v>
       </c>
@@ -13237,7 +16222,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="90"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="73" t="s">
         <v>14</v>
       </c>
@@ -13294,7 +16279,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="78"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="73" t="s">
         <v>15</v>
       </c>
@@ -13350,11 +16335,926 @@
         <v>0.83028095193060347</v>
       </c>
     </row>
+    <row r="50" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="37">
+        <v>0.95537734367611227</v>
+      </c>
+      <c r="D50" s="37">
+        <v>0.46860131895127272</v>
+      </c>
+      <c r="E50" s="37">
+        <v>0.27110606752004918</v>
+      </c>
+      <c r="F50" s="37">
+        <v>0.19447666889139631</v>
+      </c>
+      <c r="G50" s="37">
+        <v>0.321350734325965</v>
+      </c>
+      <c r="H50" s="37">
+        <v>0.4878207186130411</v>
+      </c>
+      <c r="I50" s="37">
+        <v>0.54963024314932107</v>
+      </c>
+      <c r="J50" s="37">
+        <v>0.42195593401799542</v>
+      </c>
+      <c r="K50" s="37">
+        <v>0.27152038086847807</v>
+      </c>
+      <c r="L50" s="37">
+        <v>0.17864251318632091</v>
+      </c>
+      <c r="M50" s="37">
+        <v>0.2015564237798933</v>
+      </c>
+      <c r="N50" s="37">
+        <v>0.16358271052196019</v>
+      </c>
+      <c r="O50" s="37">
+        <v>0.104015902317519</v>
+      </c>
+      <c r="P50" s="37">
+        <v>8.7414896604221096E-2</v>
+      </c>
+      <c r="Q50" s="37">
+        <v>5.1299381994300557E-2</v>
+      </c>
+      <c r="R50" s="37">
+        <v>2.1538225368556319E-2</v>
+      </c>
+      <c r="S50" s="37">
+        <v>4.7498894637864026</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="91"/>
+      <c r="B51" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="37">
+        <v>0.5102351858615789</v>
+      </c>
+      <c r="D51" s="37">
+        <v>2.177573639336901</v>
+      </c>
+      <c r="E51" s="37">
+        <v>0.90225159691403256</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0.24304235325429249</v>
+      </c>
+      <c r="G51" s="37">
+        <v>0.2011951820600946</v>
+      </c>
+      <c r="H51" s="37">
+        <v>0.3968958823762605</v>
+      </c>
+      <c r="I51" s="37">
+        <v>0.47242431288632991</v>
+      </c>
+      <c r="J51" s="37">
+        <v>0.46949917970808891</v>
+      </c>
+      <c r="K51" s="37">
+        <v>0.3774165079591239</v>
+      </c>
+      <c r="L51" s="37">
+        <v>0.1684374648378239</v>
+      </c>
+      <c r="M51" s="37">
+        <v>0.12590504176632469</v>
+      </c>
+      <c r="N51" s="37">
+        <v>0.12682330738413991</v>
+      </c>
+      <c r="O51" s="37">
+        <v>0.1128224714170353</v>
+      </c>
+      <c r="P51" s="37">
+        <v>8.2227181606853272E-2</v>
+      </c>
+      <c r="Q51" s="37">
+        <v>3.64852630627115E-2</v>
+      </c>
+      <c r="R51" s="37">
+        <v>2.4042568927090599E-2</v>
+      </c>
+      <c r="S51" s="37">
+        <v>6.4272771393586838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="91"/>
+      <c r="B52" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="37">
+        <v>0.18585796196968829</v>
+      </c>
+      <c r="D52" s="37">
+        <v>1.1195812440966899</v>
+      </c>
+      <c r="E52" s="37">
+        <v>4.4772944263084211</v>
+      </c>
+      <c r="F52" s="37">
+        <v>0.67959759456299784</v>
+      </c>
+      <c r="G52" s="37">
+        <v>0.43936317083143039</v>
+      </c>
+      <c r="H52" s="37">
+        <v>0.36934142475940829</v>
+      </c>
+      <c r="I52" s="37">
+        <v>0.41566744221292062</v>
+      </c>
+      <c r="J52" s="37">
+        <v>0.4446728591225062</v>
+      </c>
+      <c r="K52" s="37">
+        <v>0.48797422099149479</v>
+      </c>
+      <c r="L52" s="37">
+        <v>0.28795384722677192</v>
+      </c>
+      <c r="M52" s="37">
+        <v>0.17659191111612901</v>
+      </c>
+      <c r="N52" s="37">
+        <v>0.1067483134697798</v>
+      </c>
+      <c r="O52" s="37">
+        <v>7.175567139765486E-2</v>
+      </c>
+      <c r="P52" s="37">
+        <v>7.2492609269319511E-2</v>
+      </c>
+      <c r="Q52" s="37">
+        <v>4.815304933630573E-2</v>
+      </c>
+      <c r="R52" s="37">
+        <v>3.697861515818094E-2</v>
+      </c>
+      <c r="S52" s="37">
+        <v>9.4200243618296984</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="91"/>
+      <c r="B53" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="37">
+        <v>9.8544821596564386E-2</v>
+      </c>
+      <c r="D53" s="37">
+        <v>0.35148689921635728</v>
+      </c>
+      <c r="E53" s="37">
+        <v>1.849023858963323</v>
+      </c>
+      <c r="F53" s="37">
+        <v>5.3849161306258564</v>
+      </c>
+      <c r="G53" s="37">
+        <v>1.274251613189481</v>
+      </c>
+      <c r="H53" s="37">
+        <v>0.59242578896181752</v>
+      </c>
+      <c r="I53" s="37">
+        <v>0.36578735236730031</v>
+      </c>
+      <c r="J53" s="37">
+        <v>0.39181798208641883</v>
+      </c>
+      <c r="K53" s="37">
+        <v>0.38131832331497928</v>
+      </c>
+      <c r="L53" s="37">
+        <v>0.31501028482533489</v>
+      </c>
+      <c r="M53" s="37">
+        <v>0.13275647722435699</v>
+      </c>
+      <c r="N53" s="37">
+        <v>6.4086115736470051E-2</v>
+      </c>
+      <c r="O53" s="37">
+        <v>4.4992184527039583E-2</v>
+      </c>
+      <c r="P53" s="37">
+        <v>4.0006642771813268E-2</v>
+      </c>
+      <c r="Q53" s="37">
+        <v>2.2323255513686711E-2</v>
+      </c>
+      <c r="R53" s="37">
+        <v>1.322698154541955E-2</v>
+      </c>
+      <c r="S53" s="37">
+        <v>11.32197471246622</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="91"/>
+      <c r="B54" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="37">
+        <v>0.13674435888244699</v>
+      </c>
+      <c r="D54" s="37">
+        <v>0.1973461038612894</v>
+      </c>
+      <c r="E54" s="37">
+        <v>0.33264088278367998</v>
+      </c>
+      <c r="F54" s="37">
+        <v>2.0801639421415432</v>
+      </c>
+      <c r="G54" s="37">
+        <v>3.2881018429542639</v>
+      </c>
+      <c r="H54" s="37">
+        <v>1.291981250587577</v>
+      </c>
+      <c r="I54" s="37">
+        <v>0.74642200759452015</v>
+      </c>
+      <c r="J54" s="37">
+        <v>0.44357051028114952</v>
+      </c>
+      <c r="K54" s="37">
+        <v>0.32781391112595198</v>
+      </c>
+      <c r="L54" s="37">
+        <v>0.35511243372020218</v>
+      </c>
+      <c r="M54" s="37">
+        <v>0.2013201125690007</v>
+      </c>
+      <c r="N54" s="37">
+        <v>0.1296100036162845</v>
+      </c>
+      <c r="O54" s="37">
+        <v>4.9945527610854197E-2</v>
+      </c>
+      <c r="P54" s="37">
+        <v>3.7486570570338863E-2</v>
+      </c>
+      <c r="Q54" s="37">
+        <v>3.8410734022507477E-2</v>
+      </c>
+      <c r="R54" s="37">
+        <v>2.7005812857376452E-2</v>
+      </c>
+      <c r="S54" s="37">
+        <v>9.6836760051789863</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="91"/>
+      <c r="B55" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="37">
+        <v>0.2349520269592712</v>
+      </c>
+      <c r="D55" s="37">
+        <v>0.13839031196389551</v>
+      </c>
+      <c r="E55" s="37">
+        <v>0.14085678599013129</v>
+      </c>
+      <c r="F55" s="37">
+        <v>0.53473849590567735</v>
+      </c>
+      <c r="G55" s="37">
+        <v>1.460212748391696</v>
+      </c>
+      <c r="H55" s="37">
+        <v>1.852220217460947</v>
+      </c>
+      <c r="I55" s="37">
+        <v>1.026811623929313</v>
+      </c>
+      <c r="J55" s="37">
+        <v>0.61513601792090977</v>
+      </c>
+      <c r="K55" s="37">
+        <v>0.39086271327658068</v>
+      </c>
+      <c r="L55" s="37">
+        <v>0.32871844054751109</v>
+      </c>
+      <c r="M55" s="37">
+        <v>0.25938946798243162</v>
+      </c>
+      <c r="N55" s="37">
+        <v>0.13520411603848989</v>
+      </c>
+      <c r="O55" s="37">
+        <v>5.101963193209659E-2</v>
+      </c>
+      <c r="P55" s="37">
+        <v>3.7142783982220033E-2</v>
+      </c>
+      <c r="Q55" s="37">
+        <v>2.177750632497405E-2</v>
+      </c>
+      <c r="R55" s="37">
+        <v>9.7974539958549777E-3</v>
+      </c>
+      <c r="S55" s="37">
+        <v>7.2372303426020004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="91"/>
+      <c r="B56" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="37">
+        <v>0.23139097830768071</v>
+      </c>
+      <c r="D56" s="37">
+        <v>0.18634830945803391</v>
+      </c>
+      <c r="E56" s="37">
+        <v>0.32002214442986682</v>
+      </c>
+      <c r="F56" s="37">
+        <v>0.2477268978331528</v>
+      </c>
+      <c r="G56" s="37">
+        <v>0.64111273701114024</v>
+      </c>
+      <c r="H56" s="37">
+        <v>0.93691021576074984</v>
+      </c>
+      <c r="I56" s="37">
+        <v>1.145607252845813</v>
+      </c>
+      <c r="J56" s="37">
+        <v>0.73176024524973005</v>
+      </c>
+      <c r="K56" s="37">
+        <v>0.43760431815884532</v>
+      </c>
+      <c r="L56" s="37">
+        <v>0.31057135378688089</v>
+      </c>
+      <c r="M56" s="37">
+        <v>0.29406936985016652</v>
+      </c>
+      <c r="N56" s="37">
+        <v>0.20632155075193251</v>
+      </c>
+      <c r="O56" s="37">
+        <v>9.0448955083493793E-2</v>
+      </c>
+      <c r="P56" s="37">
+        <v>6.4489832263206967E-2</v>
+      </c>
+      <c r="Q56" s="37">
+        <v>3.041876575201374E-2</v>
+      </c>
+      <c r="R56" s="37">
+        <v>2.5228423844697791E-2</v>
+      </c>
+      <c r="S56" s="37">
+        <v>5.9000313503874056</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="91"/>
+      <c r="B57" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="37">
+        <v>0.1878619608002966</v>
+      </c>
+      <c r="D57" s="37">
+        <v>0.25090485400916401</v>
+      </c>
+      <c r="E57" s="37">
+        <v>0.21366968702532749</v>
+      </c>
+      <c r="F57" s="37">
+        <v>0.15358412367978369</v>
+      </c>
+      <c r="G57" s="37">
+        <v>0.35761286112020602</v>
+      </c>
+      <c r="H57" s="37">
+        <v>0.62390736042144168</v>
+      </c>
+      <c r="I57" s="37">
+        <v>0.76125665775645324</v>
+      </c>
+      <c r="J57" s="37">
+        <v>0.82975354001679491</v>
+      </c>
+      <c r="K57" s="37">
+        <v>0.54980593042912251</v>
+      </c>
+      <c r="L57" s="37">
+        <v>0.32778339394325701</v>
+      </c>
+      <c r="M57" s="37">
+        <v>0.2085899132969454</v>
+      </c>
+      <c r="N57" s="37">
+        <v>0.16070989515823689</v>
+      </c>
+      <c r="O57" s="37">
+        <v>0.13218526008459269</v>
+      </c>
+      <c r="P57" s="37">
+        <v>9.0429085363255779E-2</v>
+      </c>
+      <c r="Q57" s="37">
+        <v>4.9904908028861328E-2</v>
+      </c>
+      <c r="R57" s="37">
+        <v>1.7627183349128859E-2</v>
+      </c>
+      <c r="S57" s="37">
+        <v>4.9155866144828684</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="91"/>
+      <c r="B58" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="37">
+        <v>0.1222024142662456</v>
+      </c>
+      <c r="D58" s="37">
+        <v>0.1796813175934468</v>
+      </c>
+      <c r="E58" s="37">
+        <v>0.31826246205191411</v>
+      </c>
+      <c r="F58" s="37">
+        <v>0.19846970789059409</v>
+      </c>
+      <c r="G58" s="37">
+        <v>0.3482318342088907</v>
+      </c>
+      <c r="H58" s="37">
+        <v>0.41563737010675278</v>
+      </c>
+      <c r="I58" s="37">
+        <v>0.55930998514888186</v>
+      </c>
+      <c r="J58" s="37">
+        <v>0.54070186755533023</v>
+      </c>
+      <c r="K58" s="37">
+        <v>0.55731840083898387</v>
+      </c>
+      <c r="L58" s="37">
+        <v>0.31526474470136279</v>
+      </c>
+      <c r="M58" s="37">
+        <v>0.20194047657589079</v>
+      </c>
+      <c r="N58" s="37">
+        <v>9.2342928503605107E-2</v>
+      </c>
+      <c r="O58" s="37">
+        <v>8.3775336716125318E-2</v>
+      </c>
+      <c r="P58" s="37">
+        <v>5.8193738174374038E-2</v>
+      </c>
+      <c r="Q58" s="37">
+        <v>4.1476195370447291E-2</v>
+      </c>
+      <c r="R58" s="37">
+        <v>1.5631014639989178E-2</v>
+      </c>
+      <c r="S58" s="37">
+        <v>4.0484397943428352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="91"/>
+      <c r="B59" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="37">
+        <v>3.4295274897591821E-2</v>
+      </c>
+      <c r="D59" s="37">
+        <v>6.388017628171612E-2</v>
+      </c>
+      <c r="E59" s="37">
+        <v>9.4078668989534195E-2</v>
+      </c>
+      <c r="F59" s="37">
+        <v>0.17418895981659691</v>
+      </c>
+      <c r="G59" s="37">
+        <v>0.23404518620714479</v>
+      </c>
+      <c r="H59" s="37">
+        <v>0.28879107928718961</v>
+      </c>
+      <c r="I59" s="37">
+        <v>0.34528852220839762</v>
+      </c>
+      <c r="J59" s="37">
+        <v>0.34507961037600271</v>
+      </c>
+      <c r="K59" s="37">
+        <v>0.31461972857309078</v>
+      </c>
+      <c r="L59" s="37">
+        <v>0.29954426341197488</v>
+      </c>
+      <c r="M59" s="37">
+        <v>0.21759668184781819</v>
+      </c>
+      <c r="N59" s="37">
+        <v>9.6847179307011436E-2</v>
+      </c>
+      <c r="O59" s="37">
+        <v>6.5966792162800963E-2</v>
+      </c>
+      <c r="P59" s="37">
+        <v>4.2743369268364279E-2</v>
+      </c>
+      <c r="Q59" s="37">
+        <v>3.5689096495029611E-2</v>
+      </c>
+      <c r="R59" s="37">
+        <v>2.4598489537548781E-2</v>
+      </c>
+      <c r="S59" s="37">
+        <v>2.677253078667813</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="91"/>
+      <c r="B60" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="37">
+        <v>5.0921520688016399E-2</v>
+      </c>
+      <c r="D60" s="37">
+        <v>0.1082956071276196</v>
+      </c>
+      <c r="E60" s="37">
+        <v>0.13898902319990031</v>
+      </c>
+      <c r="F60" s="37">
+        <v>0.20058280187727501</v>
+      </c>
+      <c r="G60" s="37">
+        <v>0.35807132315506002</v>
+      </c>
+      <c r="H60" s="37">
+        <v>0.45181815231420552</v>
+      </c>
+      <c r="I60" s="37">
+        <v>0.32281820634114289</v>
+      </c>
+      <c r="J60" s="37">
+        <v>0.28014803334808031</v>
+      </c>
+      <c r="K60" s="37">
+        <v>0.30125545489374389</v>
+      </c>
+      <c r="L60" s="37">
+        <v>0.31260136855569692</v>
+      </c>
+      <c r="M60" s="37">
+        <v>0.22923947652576479</v>
+      </c>
+      <c r="N60" s="37">
+        <v>0.17657382183546311</v>
+      </c>
+      <c r="O60" s="37">
+        <v>0.1027688914057351</v>
+      </c>
+      <c r="P60" s="37">
+        <v>5.5554665284650452E-2</v>
+      </c>
+      <c r="Q60" s="37">
+        <v>3.4303269353611117E-2</v>
+      </c>
+      <c r="R60" s="37">
+        <v>2.0642559124269381E-2</v>
+      </c>
+      <c r="S60" s="37">
+        <v>3.1445841750302348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="91"/>
+      <c r="B61" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="37">
+        <v>6.7390514725733625E-2</v>
+      </c>
+      <c r="D61" s="37">
+        <v>6.7950354690251902E-2</v>
+      </c>
+      <c r="E61" s="37">
+        <v>8.2643697801464383E-2</v>
+      </c>
+      <c r="F61" s="37">
+        <v>9.522086741237136E-2</v>
+      </c>
+      <c r="G61" s="37">
+        <v>0.23309188696600841</v>
+      </c>
+      <c r="H61" s="37">
+        <v>0.39055444427437691</v>
+      </c>
+      <c r="I61" s="37">
+        <v>0.39458464840109181</v>
+      </c>
+      <c r="J61" s="37">
+        <v>0.29290531518058299</v>
+      </c>
+      <c r="K61" s="37">
+        <v>0.27204846057373377</v>
+      </c>
+      <c r="L61" s="37">
+        <v>0.17810118499175481</v>
+      </c>
+      <c r="M61" s="37">
+        <v>0.24399006662303449</v>
+      </c>
+      <c r="N61" s="37">
+        <v>0.22146652680565171</v>
+      </c>
+      <c r="O61" s="37">
+        <v>0.137328487436986</v>
+      </c>
+      <c r="P61" s="37">
+        <v>7.5858008263822108E-2</v>
+      </c>
+      <c r="Q61" s="37">
+        <v>3.9387942627390989E-2</v>
+      </c>
+      <c r="R61" s="37">
+        <v>1.9090799539399059E-2</v>
+      </c>
+      <c r="S61" s="37">
+        <v>2.8116132063136541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="91"/>
+      <c r="B62" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="37">
+        <v>4.3379170043069647E-2</v>
+      </c>
+      <c r="D62" s="37">
+        <v>5.375367012911185E-2</v>
+      </c>
+      <c r="E62" s="37">
+        <v>5.2301193299653541E-2</v>
+      </c>
+      <c r="F62" s="37">
+        <v>8.0669013067596843E-2</v>
+      </c>
+      <c r="G62" s="37">
+        <v>0.1661957239877109</v>
+      </c>
+      <c r="H62" s="37">
+        <v>0.25423056272188033</v>
+      </c>
+      <c r="I62" s="37">
+        <v>0.25580913231241642</v>
+      </c>
+      <c r="J62" s="37">
+        <v>0.2743032262156484</v>
+      </c>
+      <c r="K62" s="37">
+        <v>0.22478798970846209</v>
+      </c>
+      <c r="L62" s="37">
+        <v>0.16909017371493651</v>
+      </c>
+      <c r="M62" s="37">
+        <v>0.1428487894456297</v>
+      </c>
+      <c r="N62" s="37">
+        <v>0.17211604077959169</v>
+      </c>
+      <c r="O62" s="37">
+        <v>0.14336032731673359</v>
+      </c>
+      <c r="P62" s="37">
+        <v>0.10344521690883041</v>
+      </c>
+      <c r="Q62" s="37">
+        <v>6.7970487642258659E-2</v>
+      </c>
+      <c r="R62" s="37">
+        <v>2.5460141277821549E-2</v>
+      </c>
+      <c r="S62" s="37">
+        <v>2.229720858571353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="91"/>
+      <c r="B63" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="37">
+        <v>4.0806869866306751E-2</v>
+      </c>
+      <c r="D63" s="37">
+        <v>6.11372816257384E-2</v>
+      </c>
+      <c r="E63" s="37">
+        <v>4.3920615521244002E-2</v>
+      </c>
+      <c r="F63" s="37">
+        <v>4.488747608746281E-2</v>
+      </c>
+      <c r="G63" s="37">
+        <v>0.12808591122654059</v>
+      </c>
+      <c r="H63" s="37">
+        <v>0.1988605795455623</v>
+      </c>
+      <c r="I63" s="37">
+        <v>0.2454271149376594</v>
+      </c>
+      <c r="J63" s="37">
+        <v>0.19678011280372479</v>
+      </c>
+      <c r="K63" s="37">
+        <v>0.17800135710887641</v>
+      </c>
+      <c r="L63" s="37">
+        <v>0.1314744065094825</v>
+      </c>
+      <c r="M63" s="37">
+        <v>0.13564090620053321</v>
+      </c>
+      <c r="N63" s="37">
+        <v>0.14280335247854981</v>
+      </c>
+      <c r="O63" s="37">
+        <v>0.12969804925949091</v>
+      </c>
+      <c r="P63" s="37">
+        <v>0.1118163121879048</v>
+      </c>
+      <c r="Q63" s="37">
+        <v>5.5501927528636009E-2</v>
+      </c>
+      <c r="R63" s="37">
+        <v>2.9560656210086491E-2</v>
+      </c>
+      <c r="S63" s="37">
+        <v>1.874402929097799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="91"/>
+      <c r="B64" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="37">
+        <v>1.432324365318783E-2</v>
+      </c>
+      <c r="D64" s="37">
+        <v>3.4412122780136493E-2</v>
+      </c>
+      <c r="E64" s="37">
+        <v>5.6046944124483099E-2</v>
+      </c>
+      <c r="F64" s="37">
+        <v>0.1015445569314281</v>
+      </c>
+      <c r="G64" s="37">
+        <v>9.2040001420167786E-2</v>
+      </c>
+      <c r="H64" s="37">
+        <v>0.13341443270864711</v>
+      </c>
+      <c r="I64" s="37">
+        <v>0.13396900844392251</v>
+      </c>
+      <c r="J64" s="37">
+        <v>0.16682638104901071</v>
+      </c>
+      <c r="K64" s="37">
+        <v>0.18562674860518849</v>
+      </c>
+      <c r="L64" s="37">
+        <v>0.12996770144222319</v>
+      </c>
+      <c r="M64" s="37">
+        <v>9.9223751565279544E-2</v>
+      </c>
+      <c r="N64" s="37">
+        <v>9.6343309437963334E-2</v>
+      </c>
+      <c r="O64" s="37">
+        <v>0.15184583139897351</v>
+      </c>
+      <c r="P64" s="37">
+        <v>0.1354173800011676</v>
+      </c>
+      <c r="Q64" s="37">
+        <v>0.1169358983944319</v>
+      </c>
+      <c r="R64" s="37">
+        <v>3.8052929890342667E-2</v>
+      </c>
+      <c r="S64" s="37">
+        <v>1.685990241846554</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="79"/>
+      <c r="B65" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="37">
+        <v>1.972630952784345E-2</v>
+      </c>
+      <c r="D65" s="37">
+        <v>2.274411810204089E-2</v>
+      </c>
+      <c r="E65" s="37">
+        <v>3.7975446299955057E-2</v>
+      </c>
+      <c r="F65" s="37">
+        <v>2.0367847636392281E-2</v>
+      </c>
+      <c r="G65" s="37">
+        <v>4.3572976596205633E-2</v>
+      </c>
+      <c r="H65" s="37">
+        <v>5.7836394634122552E-2</v>
+      </c>
+      <c r="I65" s="37">
+        <v>0.1070632086376772</v>
+      </c>
+      <c r="J65" s="37">
+        <v>7.6882706636175621E-2</v>
+      </c>
+      <c r="K65" s="37">
+        <v>6.9697586693014624E-2</v>
+      </c>
+      <c r="L65" s="37">
+        <v>8.0293931883533301E-2</v>
+      </c>
+      <c r="M65" s="37">
+        <v>5.4666041140904127E-2</v>
+      </c>
+      <c r="N65" s="37">
+        <v>5.1290456941883472E-2</v>
+      </c>
+      <c r="O65" s="37">
+        <v>4.6486526470596777E-2</v>
+      </c>
+      <c r="P65" s="37">
+        <v>6.1328820540767277E-2</v>
+      </c>
+      <c r="Q65" s="37">
+        <v>5.0042894916964682E-2</v>
+      </c>
+      <c r="R65" s="37">
+        <v>3.03056852725264E-2</v>
+      </c>
+      <c r="S65" s="37">
+        <v>0.83028095193060347</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A50:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13365,10 +17265,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13468,6 +17368,29 @@
         <v>5.6</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="37">
+        <v>11.8</v>
+      </c>
+      <c r="C5" s="37">
+        <v>22</v>
+      </c>
+      <c r="D5" s="37">
+        <v>24.6</v>
+      </c>
+      <c r="E5" s="37">
+        <v>24.6</v>
+      </c>
+      <c r="F5" s="37">
+        <v>10.6</v>
+      </c>
+      <c r="G5" s="37">
+        <v>6.4000000000000057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13478,10 +17401,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:XFD7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13527,7 +17450,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="55" t="s">
@@ -13552,7 +17475,7 @@
       <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="81"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="58" t="s">
         <v>71</v>
       </c>
@@ -13571,7 +17494,7 @@
       <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="80" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="74" t="s">
@@ -13596,7 +17519,7 @@
       <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="75" t="s">
         <v>71</v>
       </c>
@@ -13618,51 +17541,96 @@
       <c r="A6" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="57">
         <v>0</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="57">
         <v>0</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="57">
         <v>0</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="83"/>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="60">
         <v>0</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="59"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="81"/>
+      <c r="B9" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13675,10 +17643,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13740,7 +17708,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="87" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="61" t="s">
@@ -13777,7 +17745,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="66" t="s">
         <v>85</v>
       </c>
@@ -13810,7 +17778,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="66" t="s">
         <v>89</v>
       </c>
@@ -13843,7 +17811,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="85"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="66" t="s">
         <v>86</v>
       </c>
@@ -13874,7 +17842,7 @@
       <c r="M5" s="65"/>
     </row>
     <row r="6" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="85"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="66" t="s">
         <v>87</v>
       </c>
@@ -13903,7 +17871,7 @@
       <c r="M6" s="65"/>
     </row>
     <row r="7" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="86"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="67" t="s">
         <v>88</v>
       </c>
@@ -13934,7 +17902,7 @@
       <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="84" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -13971,7 +17939,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="88"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="43" t="s">
         <v>85</v>
       </c>
@@ -14006,7 +17974,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="88"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="43" t="s">
         <v>89</v>
       </c>
@@ -14041,7 +18009,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="88"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="43" t="s">
         <v>92</v>
       </c>
@@ -14074,7 +18042,7 @@
       <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="88"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="43" t="s">
         <v>86</v>
       </c>
@@ -14105,7 +18073,7 @@
       <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="88"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="43" t="s">
         <v>87</v>
       </c>
@@ -14136,7 +18104,7 @@
       <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="89"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="51" t="s">
         <v>88</v>
       </c>
@@ -14170,210 +18138,414 @@
       <c r="A15" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="63">
         <v>0.5</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="64">
         <v>1</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="64">
         <v>1</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="64">
         <v>1</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="64">
         <v>1</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="64">
         <v>0</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40">
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="17">
         <v>43910</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="65">
         <v>43920</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="88"/>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="16">
         <v>0.38</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="37">
         <v>1</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="37">
         <v>1</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="37">
         <v>1</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="37">
         <v>0</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="46">
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="65">
         <v>43920</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="65">
         <v>43966</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="88"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="37">
         <v>1</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="37">
         <v>1</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="37">
         <v>1</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="37">
         <v>0</v>
       </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="46">
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="65">
         <v>43966</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="65">
         <v>43985</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="88"/>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="16">
         <v>0.72</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="37">
         <v>1</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="37">
         <v>1</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="37">
         <v>1</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="37">
         <v>1</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="37">
         <v>0</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="46">
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="65">
         <v>43985</v>
       </c>
-      <c r="M18" s="46"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="88"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="37">
         <v>1</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="37">
         <v>1</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="37">
         <v>1</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="37">
         <v>1</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="37">
         <v>0</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="89"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="69">
         <v>0.9</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="68">
         <v>1</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="68">
         <v>1</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="68">
         <v>1</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="68">
         <v>1</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="68">
         <v>0</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="49"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="71"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="41">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E21" s="33">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39">
+        <v>1</v>
+      </c>
+      <c r="G21" s="39">
+        <v>1</v>
+      </c>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40">
+        <v>43917</v>
+      </c>
+      <c r="M21" s="46">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="85"/>
+      <c r="B22" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="45">
+        <v>0.47</v>
+      </c>
+      <c r="E22" s="44">
+        <v>1</v>
+      </c>
+      <c r="F22" s="44">
+        <v>1</v>
+      </c>
+      <c r="G22" s="44">
+        <v>1</v>
+      </c>
+      <c r="H22" s="44">
+        <v>1</v>
+      </c>
+      <c r="I22" s="44">
+        <v>0</v>
+      </c>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="46">
+        <v>43920</v>
+      </c>
+      <c r="M22" s="46">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="85"/>
+      <c r="B23" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="48">
+        <v>1</v>
+      </c>
+      <c r="F23" s="44">
+        <v>1</v>
+      </c>
+      <c r="G23" s="44">
+        <v>1</v>
+      </c>
+      <c r="H23" s="44">
+        <v>1</v>
+      </c>
+      <c r="I23" s="44">
+        <v>0</v>
+      </c>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="46">
+        <v>43966</v>
+      </c>
+      <c r="M23" s="46">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="85"/>
+      <c r="B24" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="44">
+        <v>1</v>
+      </c>
+      <c r="F24" s="44">
+        <v>1</v>
+      </c>
+      <c r="G24" s="44">
+        <v>1</v>
+      </c>
+      <c r="H24" s="44">
+        <v>1</v>
+      </c>
+      <c r="I24" s="44">
+        <v>0</v>
+      </c>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="46">
+        <v>43985</v>
+      </c>
+      <c r="M24" s="46"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="85"/>
+      <c r="B25" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="45">
+        <v>0.35</v>
+      </c>
+      <c r="E25" s="44">
+        <v>1</v>
+      </c>
+      <c r="F25" s="44">
+        <v>1</v>
+      </c>
+      <c r="G25" s="44">
+        <v>1</v>
+      </c>
+      <c r="H25" s="44">
+        <v>1</v>
+      </c>
+      <c r="I25" s="44">
+        <v>0</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="86"/>
+      <c r="B26" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="52">
+        <v>0.45</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19">
+        <v>1</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -14384,10 +18556,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14685,6 +18857,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="38">
+        <v>43917</v>
+      </c>
+      <c r="C5" s="38">
+        <v>44256</v>
+      </c>
+      <c r="D5" s="37">
+        <v>3</v>
+      </c>
+      <c r="E5" s="37">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="J5" s="37">
+        <v>5</v>
+      </c>
+      <c r="K5" s="37">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="37">
+        <v>0</v>
+      </c>
+      <c r="O5" s="37">
+        <v>50</v>
+      </c>
+      <c r="P5" s="37">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>600</v>
+      </c>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37">
+        <v>10</v>
+      </c>
+      <c r="T5" s="37">
+        <v>1</v>
+      </c>
+      <c r="U5" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="V5" s="37">
+        <v>3</v>
+      </c>
+      <c r="W5" s="37">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14697,10 +18938,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" activeCellId="1" sqref="A2:XFD8 A11:XFD11"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14845,6 +19086,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="37">
+        <v>4</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37">
+        <v>1</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0</v>
+      </c>
+      <c r="G5" s="37">
+        <v>110</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14856,10 +19129,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" activeCellId="1" sqref="A2:XFD8 A11:XFD11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15003,6 +19276,38 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="37">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>110</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15013,10 +19318,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" activeCellId="1" sqref="A2:XFD8 A11:XFD11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15160,6 +19465,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="37">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37">
+        <v>18</v>
+      </c>
+      <c r="G5" s="37">
+        <v>65</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="15">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15170,10 +19507,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" activeCellId="1" sqref="A2:XFD8 A11:XFD11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15318,6 +19655,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="37">
+        <v>23</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37">
+        <v>5</v>
+      </c>
+      <c r="G5" s="37">
+        <v>18</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
